--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -1,214 +1,208 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\Documents\SpiderOak Hive\Work\Projects\Climate-and-development-data\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="IPCC_AR5_chapter_GHG_2010" sheetId="1" r:id="rId1"/>
+    <sheet name="IPCC_AR5_chapter_GHG_2010" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="61">
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>WB.income</t>
-  </si>
-  <si>
-    <t>var</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Upper middle income</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>IPCC_AR5_chapter_7_GHG_2010</t>
-  </si>
-  <si>
-    <t>United States</t>
-  </si>
-  <si>
-    <t>High income</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Lower middle income</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Iran, Islamic Rep.</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Korea, Rep.</t>
-  </si>
-  <si>
-    <t>South Africa</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Kazakhstan</t>
-  </si>
-  <si>
-    <t>Poland</t>
-  </si>
-  <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
-    <t>High income (rest)</t>
-  </si>
-  <si>
-    <t>Upper middle income (rest)</t>
-  </si>
-  <si>
-    <t>Lower middle income (rest)</t>
-  </si>
-  <si>
-    <t>Low income (rest)</t>
-  </si>
-  <si>
-    <t>Low income</t>
-  </si>
-  <si>
-    <t>abs_growth</t>
-  </si>
-  <si>
-    <t>IPCC_AR5_chapter_8_GHG_2010</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Italy</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Turkey</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Egypt, Arab Rep.</t>
-  </si>
-  <si>
-    <t>IPCC_AR5_chapter_9_GHG_2010</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Uzbekistan</t>
-  </si>
-  <si>
-    <t>IPCC_AR5_chapter_10_GHG_2010</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>United Arab Emirates</t>
-  </si>
-  <si>
-    <t>IPCC_AR5_chapter_11_GHG_2010</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
-    <t>Sudan</t>
-  </si>
-  <si>
-    <t>Myanmar</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Tanzania</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>New Zealand</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB.income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">var</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper middle income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR5_chapter_7_GHG_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower middle income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian Federation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea, Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">High income (rest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper middle income (rest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower middle income (rest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low income (rest)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abs_growth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR5_chapter_8_GHG_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt, Arab Rep.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR5_chapter_9_GHG_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR5_chapter_10_GHG_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPCC_AR5_chapter_11_GHG_2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -244,15 +238,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -534,19 +519,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -573,14 +553,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>2.3573916036370801</v>
+      <c r="D2" t="n">
+        <v>2.35739160363708</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -590,14 +570,14 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
-        <v>-1.8329173907038701</v>
+      <c r="D3" t="n">
+        <v>-1.83291739070387</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -607,14 +587,14 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>4.3089341731052704</v>
+      <c r="D4" t="n">
+        <v>4.30893417310527</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -624,14 +604,14 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5">
-        <v>-0.53672803005220304</v>
+      <c r="D5" t="n">
+        <v>-0.536728030052203</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -641,14 +621,14 @@
       <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>1.25985377007007</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -658,14 +638,14 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>3.6959516577249198</v>
+      <c r="D7" t="n">
+        <v>3.69595165772492</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -675,14 +655,14 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>4.0206449497071999</v>
+      <c r="D8" t="n">
+        <v>4.0206449497072</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -692,14 +672,14 @@
       <c r="C9" t="s">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>-0.40740481598966499</v>
+      <c r="D9" t="n">
+        <v>-0.407404815989665</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -709,14 +689,14 @@
       <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>1.3923644656746099</v>
+      <c r="D10" t="n">
+        <v>1.39236446567461</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -726,14 +706,14 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11">
-        <v>-0.50739592537432099</v>
+      <c r="D11" t="n">
+        <v>-0.507395925374321</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -743,14 +723,14 @@
       <c r="C12" t="s">
         <v>7</v>
       </c>
-      <c r="D12">
-        <v>2.7767157137369698</v>
+      <c r="D12" t="n">
+        <v>2.77671571373697</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -760,14 +740,14 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>1.12628313270751</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -777,14 +757,14 @@
       <c r="C14" t="s">
         <v>7</v>
       </c>
-      <c r="D14">
-        <v>-0.66703702594520498</v>
+      <c r="D14" t="n">
+        <v>-0.667037025945205</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -794,14 +774,14 @@
       <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D15">
-        <v>-0.22404029022786701</v>
+      <c r="D15" t="n">
+        <v>-0.224040290227867</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -811,14 +791,14 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16">
-        <v>7.1493546491708599</v>
+      <c r="D16" t="n">
+        <v>7.14935464917086</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -828,14 +808,14 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>2.7299596397268</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>26</v>
       </c>
@@ -845,14 +825,14 @@
       <c r="C18" t="s">
         <v>7</v>
       </c>
-      <c r="D18">
-        <v>8.4911624989003606E-2</v>
+      <c r="D18" t="n">
+        <v>0.0849116249890036</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>27</v>
       </c>
@@ -862,14 +842,14 @@
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19">
-        <v>2.5195845506907499</v>
+      <c r="D19" t="n">
+        <v>2.51958455069075</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -879,14 +859,14 @@
       <c r="C20" t="s">
         <v>7</v>
       </c>
-      <c r="D20">
-        <v>-0.56286873301774099</v>
+      <c r="D20" t="n">
+        <v>-0.562868733017741</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -896,14 +876,14 @@
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21">
-        <v>1.7475203375984401</v>
+      <c r="D21" t="n">
+        <v>1.74752033759844</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -913,14 +893,14 @@
       <c r="C22" t="s">
         <v>7</v>
       </c>
-      <c r="D22">
-        <v>1.4596288327042699</v>
+      <c r="D22" t="n">
+        <v>1.45962883270427</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -930,14 +910,14 @@
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>-1.71813550385129</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -947,14 +927,14 @@
       <c r="C24" t="s">
         <v>33</v>
       </c>
-      <c r="D24">
-        <v>937836.74308939395</v>
+      <c r="D24" t="n">
+        <v>937836.743089394</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -964,14 +944,14 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="D25">
-        <v>-397675.95525824302</v>
+      <c r="D25" t="n">
+        <v>-397675.955258243</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -981,14 +961,14 @@
       <c r="C26" t="s">
         <v>33</v>
       </c>
-      <c r="D26">
-        <v>377234.11385068001</v>
+      <c r="D26" t="n">
+        <v>377234.11385068</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -998,14 +978,14 @@
       <c r="C27" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
-        <v>-54641.340154290701</v>
+      <c r="D27" t="n">
+        <v>-54641.3401542907</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -1015,14 +995,14 @@
       <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D28">
-        <v>55586.343709401102</v>
+      <c r="D28" t="n">
+        <v>55586.3437094011</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>15</v>
       </c>
@@ -1032,14 +1012,14 @@
       <c r="C29" t="s">
         <v>33</v>
       </c>
-      <c r="D29">
-        <v>102493.71171547699</v>
+      <c r="D29" t="n">
+        <v>102493.711715477</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1049,14 +1029,14 @@
       <c r="C30" t="s">
         <v>33</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>101247.268695326</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1066,14 +1046,14 @@
       <c r="C31" t="s">
         <v>33</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>-11970.7179137232</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1083,14 +1063,14 @@
       <c r="C32" t="s">
         <v>33</v>
       </c>
-      <c r="D32">
-        <v>36537.661123362202</v>
+      <c r="D32" t="n">
+        <v>36537.6611233622</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1100,14 +1080,14 @@
       <c r="C33" t="s">
         <v>33</v>
       </c>
-      <c r="D33">
-        <v>-14272.879873640701</v>
+      <c r="D33" t="n">
+        <v>-14272.8798736407</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1117,14 +1097,14 @@
       <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>62505.9980281717</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -1134,14 +1114,14 @@
       <c r="C35" t="s">
         <v>33</v>
       </c>
-      <c r="D35">
-        <v>26317.225747116001</v>
+      <c r="D35" t="n">
+        <v>26317.225747116</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1151,14 +1131,14 @@
       <c r="C36" t="s">
         <v>33</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>-14294.0252026338</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1168,14 +1148,14 @@
       <c r="C37" t="s">
         <v>33</v>
       </c>
-      <c r="D37">
-        <v>-4302.5222583638997</v>
+      <c r="D37" t="n">
+        <v>-4302.5222583639</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1185,14 +1165,14 @@
       <c r="C38" t="s">
         <v>33</v>
       </c>
-      <c r="D38">
-        <v>89848.844539890197</v>
+      <c r="D38" t="n">
+        <v>89848.8445398902</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" t="s">
         <v>25</v>
       </c>
@@ -1202,14 +1182,14 @@
       <c r="C39" t="s">
         <v>33</v>
       </c>
-      <c r="D39">
-        <v>40014.373000471103</v>
+      <c r="D39" t="n">
+        <v>40014.3730004711</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" t="s">
         <v>26</v>
       </c>
@@ -1219,14 +1199,14 @@
       <c r="C40" t="s">
         <v>33</v>
       </c>
-      <c r="D40">
-        <v>1355.7347801963299</v>
+      <c r="D40" t="n">
+        <v>1355.73478019633</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" t="s">
         <v>27</v>
       </c>
@@ -1236,14 +1216,14 @@
       <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="D41">
-        <v>30948.641373449798</v>
+      <c r="D41" t="n">
+        <v>30948.6413734498</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" t="s">
         <v>28</v>
       </c>
@@ -1253,14 +1233,14 @@
       <c r="C42" t="s">
         <v>33</v>
       </c>
-      <c r="D42">
-        <v>-79898.396315336504</v>
+      <c r="D42" t="n">
+        <v>-79898.3963153365</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" t="s">
         <v>29</v>
       </c>
@@ -1270,14 +1250,14 @@
       <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43">
-        <v>141777.57835049499</v>
+      <c r="D43" t="n">
+        <v>141777.578350495</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" t="s">
         <v>30</v>
       </c>
@@ -1287,14 +1267,14 @@
       <c r="C44" t="s">
         <v>33</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>102514.794414527</v>
       </c>
       <c r="E44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1304,14 +1284,14 @@
       <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="D45">
-        <v>-13813.339047573199</v>
+      <c r="D45" t="n">
+        <v>-13813.3390475732</v>
       </c>
       <c r="E45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1321,14 +1301,14 @@
       <c r="C46" t="s">
         <v>7</v>
       </c>
-      <c r="D46">
-        <v>0.20466496778093199</v>
+      <c r="D46" t="n">
+        <v>0.204664967780932</v>
       </c>
       <c r="E46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1338,14 +1318,14 @@
       <c r="C47" t="s">
         <v>7</v>
       </c>
-      <c r="D47">
-        <v>4.7328442299049902</v>
+      <c r="D47" t="n">
+        <v>4.73284422990499</v>
       </c>
       <c r="E47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -1355,14 +1335,14 @@
       <c r="C48" t="s">
         <v>7</v>
       </c>
-      <c r="D48">
-        <v>4.7285202697415496</v>
+      <c r="D48" t="n">
+        <v>4.72852026974155</v>
       </c>
       <c r="E48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -1372,14 +1352,14 @@
       <c r="C49" t="s">
         <v>7</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>0.119114555776845</v>
       </c>
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -1389,14 +1369,14 @@
       <c r="C50" t="s">
         <v>7</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>-0.554787415868219</v>
       </c>
       <c r="E50" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" t="s">
         <v>21</v>
       </c>
@@ -1406,14 +1386,14 @@
       <c r="C51" t="s">
         <v>7</v>
       </c>
-      <c r="D51">
-        <v>1.1232654108798401</v>
+      <c r="D51" t="n">
+        <v>1.12326541087984</v>
       </c>
       <c r="E51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" t="s">
         <v>35</v>
       </c>
@@ -1423,14 +1403,14 @@
       <c r="C52" t="s">
         <v>7</v>
       </c>
-      <c r="D52">
-        <v>1.1201892768055901</v>
+      <c r="D52" t="n">
+        <v>1.12018927680559</v>
       </c>
       <c r="E52" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" t="s">
         <v>17</v>
       </c>
@@ -1440,14 +1420,14 @@
       <c r="C53" t="s">
         <v>7</v>
       </c>
-      <c r="D53">
-        <v>0.88110964628300703</v>
+      <c r="D53" t="n">
+        <v>0.881109646283007</v>
       </c>
       <c r="E53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1457,14 +1437,14 @@
       <c r="C54" t="s">
         <v>7</v>
       </c>
-      <c r="D54">
-        <v>0.40096957875863598</v>
+      <c r="D54" t="n">
+        <v>0.400969578758636</v>
       </c>
       <c r="E54" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -1474,14 +1454,14 @@
       <c r="C55" t="s">
         <v>7</v>
       </c>
-      <c r="D55">
-        <v>2.8950454226700102</v>
+      <c r="D55" t="n">
+        <v>2.89504542267001</v>
       </c>
       <c r="E55" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -1491,14 +1471,14 @@
       <c r="C56" t="s">
         <v>7</v>
       </c>
-      <c r="D56">
-        <v>4.2272639944391104</v>
+      <c r="D56" t="n">
+        <v>4.22726399443911</v>
       </c>
       <c r="E56" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1508,14 +1488,14 @@
       <c r="C57" t="s">
         <v>7</v>
       </c>
-      <c r="D57">
-        <v>3.5562275956544598</v>
+      <c r="D57" t="n">
+        <v>3.55622759565446</v>
       </c>
       <c r="E57" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -1525,14 +1505,14 @@
       <c r="C58" t="s">
         <v>7</v>
       </c>
-      <c r="D58">
-        <v>0.31754395864920199</v>
+      <c r="D58" t="n">
+        <v>0.317543958649202</v>
       </c>
       <c r="E58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" t="s">
         <v>37</v>
       </c>
@@ -1542,14 +1522,14 @@
       <c r="C59" t="s">
         <v>7</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>-1.17884481982908</v>
       </c>
       <c r="E59" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" t="s">
         <v>38</v>
       </c>
@@ -1559,14 +1539,14 @@
       <c r="C60" t="s">
         <v>7</v>
       </c>
-      <c r="D60">
-        <v>-0.46600473825100203</v>
+      <c r="D60" t="n">
+        <v>-0.466004738251002</v>
       </c>
       <c r="E60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" t="s">
         <v>18</v>
       </c>
@@ -1576,14 +1556,14 @@
       <c r="C61" t="s">
         <v>7</v>
       </c>
-      <c r="D61">
-        <v>1.9247253141001699</v>
+      <c r="D61" t="n">
+        <v>1.92472531410017</v>
       </c>
       <c r="E61" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -1593,14 +1573,14 @@
       <c r="C62" t="s">
         <v>7</v>
       </c>
-      <c r="D62">
-        <v>0.98458776865824005</v>
+      <c r="D62" t="n">
+        <v>0.98458776865824</v>
       </c>
       <c r="E62" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" t="s">
         <v>39</v>
       </c>
@@ -1610,14 +1590,14 @@
       <c r="C63" t="s">
         <v>7</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>-1.19755289467838</v>
       </c>
       <c r="E63" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" t="s">
         <v>40</v>
       </c>
@@ -1627,14 +1607,14 @@
       <c r="C64" t="s">
         <v>7</v>
       </c>
-      <c r="D64">
-        <v>8.8681629435986409</v>
+      <c r="D64" t="n">
+        <v>8.86816294359864</v>
       </c>
       <c r="E64" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" t="s">
         <v>41</v>
       </c>
@@ -1644,14 +1624,14 @@
       <c r="C65" t="s">
         <v>7</v>
       </c>
-      <c r="D65">
-        <v>1.9015068008101399</v>
+      <c r="D65" t="n">
+        <v>1.90150680081014</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" t="s">
         <v>27</v>
       </c>
@@ -1661,14 +1641,14 @@
       <c r="C66" t="s">
         <v>7</v>
       </c>
-      <c r="D66">
-        <v>4.7516378035388902</v>
+      <c r="D66" t="n">
+        <v>4.75163780353889</v>
       </c>
       <c r="E66" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" t="s">
         <v>42</v>
       </c>
@@ -1678,14 +1658,14 @@
       <c r="C67" t="s">
         <v>7</v>
       </c>
-      <c r="D67">
-        <v>3.3419985894357098</v>
+      <c r="D67" t="n">
+        <v>3.34199858943571</v>
       </c>
       <c r="E67" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" t="s">
         <v>28</v>
       </c>
@@ -1695,14 +1675,14 @@
       <c r="C68" t="s">
         <v>7</v>
       </c>
-      <c r="D68">
-        <v>0.38170510268784602</v>
+      <c r="D68" t="n">
+        <v>0.381705102687846</v>
       </c>
       <c r="E68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" t="s">
         <v>29</v>
       </c>
@@ -1712,14 +1692,14 @@
       <c r="C69" t="s">
         <v>7</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>1.7359650109575</v>
       </c>
       <c r="E69" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" t="s">
         <v>30</v>
       </c>
@@ -1729,14 +1709,14 @@
       <c r="C70" t="s">
         <v>7</v>
       </c>
-      <c r="D70">
-        <v>2.7330232833637802</v>
+      <c r="D70" t="n">
+        <v>2.73302328336378</v>
       </c>
       <c r="E70" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" t="s">
         <v>31</v>
       </c>
@@ -1746,14 +1726,14 @@
       <c r="C71" t="s">
         <v>7</v>
       </c>
-      <c r="D71">
-        <v>3.2354373812146102</v>
+      <c r="D71" t="n">
+        <v>3.23543738121461</v>
       </c>
       <c r="E71" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -1763,14 +1743,14 @@
       <c r="C72" t="s">
         <v>33</v>
       </c>
-      <c r="D72">
-        <v>28316.555599089199</v>
+      <c r="D72" t="n">
+        <v>28316.5555990892</v>
       </c>
       <c r="E72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1780,14 +1760,14 @@
       <c r="C73" t="s">
         <v>33</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>264335.65561103</v>
       </c>
       <c r="E73" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -1797,14 +1777,14 @@
       <c r="C74" t="s">
         <v>33</v>
       </c>
-      <c r="D74">
-        <v>86948.806853170507</v>
+      <c r="D74" t="n">
+        <v>86948.8068531705</v>
       </c>
       <c r="E74" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -1814,14 +1794,14 @@
       <c r="C75" t="s">
         <v>33</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>2360.67016775906</v>
       </c>
       <c r="E75" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" t="s">
         <v>14</v>
       </c>
@@ -1831,14 +1811,14 @@
       <c r="C76" t="s">
         <v>33</v>
       </c>
-      <c r="D76">
-        <v>-9466.7755419225705</v>
+      <c r="D76" t="n">
+        <v>-9466.77554192257</v>
       </c>
       <c r="E76" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -1848,14 +1828,14 @@
       <c r="C77" t="s">
         <v>33</v>
       </c>
-      <c r="D77">
-        <v>16088.133451187599</v>
+      <c r="D77" t="n">
+        <v>16088.1334511876</v>
       </c>
       <c r="E77" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" t="s">
         <v>35</v>
       </c>
@@ -1865,14 +1845,14 @@
       <c r="C78" t="s">
         <v>33</v>
       </c>
-      <c r="D78">
-        <v>15851.747098985799</v>
+      <c r="D78" t="n">
+        <v>15851.7470989858</v>
       </c>
       <c r="E78" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" t="s">
         <v>17</v>
       </c>
@@ -1882,14 +1862,14 @@
       <c r="C79" t="s">
         <v>33</v>
       </c>
-      <c r="D79">
-        <v>10918.963151812801</v>
+      <c r="D79" t="n">
+        <v>10918.9631518128</v>
       </c>
       <c r="E79" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -1899,14 +1879,14 @@
       <c r="C80" t="s">
         <v>33</v>
       </c>
-      <c r="D80">
-        <v>4978.0439199213597</v>
+      <c r="D80" t="n">
+        <v>4978.04391992136</v>
       </c>
       <c r="E80" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -1916,14 +1896,14 @@
       <c r="C81" t="s">
         <v>33</v>
       </c>
-      <c r="D81">
-        <v>30447.371231882898</v>
+      <c r="D81" t="n">
+        <v>30447.3712318829</v>
       </c>
       <c r="E81" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -1933,14 +1913,14 @@
       <c r="C82" t="s">
         <v>33</v>
       </c>
-      <c r="D82">
-        <v>41683.050545522099</v>
+      <c r="D82" t="n">
+        <v>41683.0505455221</v>
       </c>
       <c r="E82" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" t="s">
         <v>20</v>
       </c>
@@ -1950,14 +1930,14 @@
       <c r="C83" t="s">
         <v>33</v>
       </c>
-      <c r="D83">
-        <v>33117.401395289402</v>
+      <c r="D83" t="n">
+        <v>33117.4013952894</v>
       </c>
       <c r="E83" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="A84" t="s">
         <v>36</v>
       </c>
@@ -1967,14 +1947,14 @@
       <c r="C84" t="s">
         <v>33</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>3208.43152368354</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="A85" t="s">
         <v>37</v>
       </c>
@@ -1984,14 +1964,14 @@
       <c r="C85" t="s">
         <v>33</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>-10743.3657263721</v>
       </c>
       <c r="E85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="A86" t="s">
         <v>38</v>
       </c>
@@ -2001,14 +1981,14 @@
       <c r="C86" t="s">
         <v>33</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>-4066.50686259124</v>
       </c>
       <c r="E86" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -2018,14 +1998,14 @@
       <c r="C87" t="s">
         <v>33</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>14480.6881461379</v>
       </c>
       <c r="E87" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2035,14 +2015,14 @@
       <c r="C88" t="s">
         <v>33</v>
       </c>
-      <c r="D88">
-        <v>7250.4511648770704</v>
+      <c r="D88" t="n">
+        <v>7250.45116487707</v>
       </c>
       <c r="E88" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="A89" t="s">
         <v>39</v>
       </c>
@@ -2052,14 +2032,14 @@
       <c r="C89" t="s">
         <v>33</v>
       </c>
-      <c r="D89">
-        <v>-9162.3048886262804</v>
+      <c r="D89" t="n">
+        <v>-9162.30488862628</v>
       </c>
       <c r="E89" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="A90" t="s">
         <v>40</v>
       </c>
@@ -2069,14 +2049,14 @@
       <c r="C90" t="s">
         <v>33</v>
       </c>
-      <c r="D90">
-        <v>42710.904846900601</v>
+      <c r="D90" t="n">
+        <v>42710.9048469006</v>
       </c>
       <c r="E90" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="A91" t="s">
         <v>41</v>
       </c>
@@ -2086,14 +2066,14 @@
       <c r="C91" t="s">
         <v>33</v>
       </c>
-      <c r="D91">
-        <v>9414.2030081738594</v>
+      <c r="D91" t="n">
+        <v>9414.20300817386</v>
       </c>
       <c r="E91" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="A92" t="s">
         <v>27</v>
       </c>
@@ -2103,14 +2083,14 @@
       <c r="C92" t="s">
         <v>33</v>
       </c>
-      <c r="D92">
+      <c r="D92" t="n">
         <v>20139.1533169574</v>
       </c>
       <c r="E92" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="A93" t="s">
         <v>42</v>
       </c>
@@ -2120,14 +2100,14 @@
       <c r="C93" t="s">
         <v>33</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>13624.7610663412</v>
       </c>
       <c r="E93" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -2137,14 +2117,14 @@
       <c r="C94" t="s">
         <v>33</v>
       </c>
-      <c r="D94">
-        <v>17275.604476587599</v>
+      <c r="D94" t="n">
+        <v>17275.6044765876</v>
       </c>
       <c r="E94" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="A95" t="s">
         <v>29</v>
       </c>
@@ -2154,14 +2134,14 @@
       <c r="C95" t="s">
         <v>33</v>
       </c>
-      <c r="D95">
-        <v>49813.570067464098</v>
+      <c r="D95" t="n">
+        <v>49813.5700674641</v>
       </c>
       <c r="E95" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="A96" t="s">
         <v>30</v>
       </c>
@@ -2171,14 +2151,14 @@
       <c r="C96" t="s">
         <v>33</v>
       </c>
-      <c r="D96">
-        <v>61867.495406836402</v>
+      <c r="D96" t="n">
+        <v>61867.4954068364</v>
       </c>
       <c r="E96" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="A97" t="s">
         <v>31</v>
       </c>
@@ -2188,14 +2168,14 @@
       <c r="C97" t="s">
         <v>33</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>15248.3738276206</v>
       </c>
       <c r="E97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2205,14 +2185,14 @@
       <c r="C98" t="s">
         <v>7</v>
       </c>
-      <c r="D98">
-        <v>2.1305139084370199</v>
+      <c r="D98" t="n">
+        <v>2.13051390843702</v>
       </c>
       <c r="E98" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2222,14 +2202,14 @@
       <c r="C99" t="s">
         <v>7</v>
       </c>
-      <c r="D99">
-        <v>-0.68647979653068103</v>
+      <c r="D99" t="n">
+        <v>-0.686479796530681</v>
       </c>
       <c r="E99" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -2239,14 +2219,14 @@
       <c r="C100" t="s">
         <v>7</v>
       </c>
-      <c r="D100">
-        <v>2.2653173743375299</v>
+      <c r="D100" t="n">
+        <v>2.26531737433753</v>
       </c>
       <c r="E100" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -2256,14 +2236,14 @@
       <c r="C101" t="s">
         <v>7</v>
       </c>
-      <c r="D101">
-        <v>1.3265658779790599</v>
+      <c r="D101" t="n">
+        <v>1.32656587797906</v>
       </c>
       <c r="E101" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -2273,14 +2253,14 @@
       <c r="C102" t="s">
         <v>7</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>-1.44300092831338</v>
       </c>
       <c r="E102" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -2290,14 +2270,14 @@
       <c r="C103" t="s">
         <v>7</v>
       </c>
-      <c r="D103">
-        <v>1.2167698904487001</v>
+      <c r="D103" t="n">
+        <v>1.2167698904487</v>
       </c>
       <c r="E103" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="A104" t="s">
         <v>14</v>
       </c>
@@ -2307,14 +2287,14 @@
       <c r="C104" t="s">
         <v>7</v>
       </c>
-      <c r="D104">
-        <v>-0.86504363630085501</v>
+      <c r="D104" t="n">
+        <v>-0.865043636300855</v>
       </c>
       <c r="E104" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="A105" t="s">
         <v>21</v>
       </c>
@@ -2324,14 +2304,14 @@
       <c r="C105" t="s">
         <v>7</v>
       </c>
-      <c r="D105">
-        <v>1.1364289223994699</v>
+      <c r="D105" t="n">
+        <v>1.13642892239947</v>
       </c>
       <c r="E105" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="A106" t="s">
         <v>37</v>
       </c>
@@ -2341,14 +2321,14 @@
       <c r="C106" t="s">
         <v>7</v>
       </c>
-      <c r="D106">
-        <v>-4.2616692633629798</v>
+      <c r="D106" t="n">
+        <v>-4.26166926336298</v>
       </c>
       <c r="E106" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="A107" t="s">
         <v>36</v>
       </c>
@@ -2358,14 +2338,14 @@
       <c r="C107" t="s">
         <v>7</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>-2.41455739859662</v>
       </c>
       <c r="E107" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="A108" t="s">
         <v>40</v>
       </c>
@@ -2375,14 +2355,14 @@
       <c r="C108" t="s">
         <v>7</v>
       </c>
-      <c r="D108">
-        <v>3.3731762388490298</v>
+      <c r="D108" t="n">
+        <v>3.37317623884903</v>
       </c>
       <c r="E108" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="A109" t="s">
         <v>38</v>
       </c>
@@ -2392,14 +2372,14 @@
       <c r="C109" t="s">
         <v>7</v>
       </c>
-      <c r="D109">
-        <v>-1.8601551067405999</v>
+      <c r="D109" t="n">
+        <v>-1.8601551067406</v>
       </c>
       <c r="E109" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="A110" t="s">
         <v>18</v>
       </c>
@@ -2409,14 +2389,14 @@
       <c r="C110" t="s">
         <v>7</v>
       </c>
-      <c r="D110">
-        <v>-0.60539990088387396</v>
+      <c r="D110" t="n">
+        <v>-0.605399900883874</v>
       </c>
       <c r="E110" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="A111" t="s">
         <v>26</v>
       </c>
@@ -2426,14 +2406,14 @@
       <c r="C111" t="s">
         <v>7</v>
       </c>
-      <c r="D111">
-        <v>-2.1903578009402001</v>
+      <c r="D111" t="n">
+        <v>-2.1903578009402</v>
       </c>
       <c r="E111" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="A112" t="s">
         <v>20</v>
       </c>
@@ -2443,14 +2423,14 @@
       <c r="C112" t="s">
         <v>7</v>
       </c>
-      <c r="D112">
-        <v>0.90165538805564405</v>
+      <c r="D112" t="n">
+        <v>0.901655388055644</v>
       </c>
       <c r="E112" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="A113" t="s">
         <v>44</v>
       </c>
@@ -2460,14 +2440,14 @@
       <c r="C113" t="s">
         <v>7</v>
       </c>
-      <c r="D113">
-        <v>1.2921248453079801</v>
+      <c r="D113" t="n">
+        <v>1.29212484530798</v>
       </c>
       <c r="E113" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="A114" t="s">
         <v>45</v>
       </c>
@@ -2477,14 +2457,14 @@
       <c r="C114" t="s">
         <v>7</v>
       </c>
-      <c r="D114">
-        <v>3.4295777401935701</v>
+      <c r="D114" t="n">
+        <v>3.42957774019357</v>
       </c>
       <c r="E114" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="A115" t="s">
         <v>46</v>
       </c>
@@ -2494,14 +2474,14 @@
       <c r="C115" t="s">
         <v>7</v>
       </c>
-      <c r="D115">
-        <v>-2.2107974333224298</v>
+      <c r="D115" t="n">
+        <v>-2.21079743332243</v>
       </c>
       <c r="E115" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="A116" t="s">
         <v>28</v>
       </c>
@@ -2511,14 +2491,14 @@
       <c r="C116" t="s">
         <v>7</v>
       </c>
-      <c r="D116">
-        <v>-1.6680873551470601</v>
+      <c r="D116" t="n">
+        <v>-1.66808735514706</v>
       </c>
       <c r="E116" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="A117" t="s">
         <v>29</v>
       </c>
@@ -2528,14 +2508,14 @@
       <c r="C117" t="s">
         <v>7</v>
       </c>
-      <c r="D117">
-        <v>1.3231155448229599</v>
+      <c r="D117" t="n">
+        <v>1.32311554482296</v>
       </c>
       <c r="E117" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="A118" t="s">
         <v>30</v>
       </c>
@@ -2545,14 +2525,14 @@
       <c r="C118" t="s">
         <v>7</v>
       </c>
-      <c r="D118">
-        <v>0.38143534904613302</v>
+      <c r="D118" t="n">
+        <v>0.381435349046133</v>
       </c>
       <c r="E118" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="A119" t="s">
         <v>31</v>
       </c>
@@ -2562,14 +2542,14 @@
       <c r="C119" t="s">
         <v>7</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>0.738259252722129</v>
       </c>
       <c r="E119" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2579,14 +2559,14 @@
       <c r="C120" t="s">
         <v>33</v>
       </c>
-      <c r="D120">
-        <v>98429.261925462401</v>
+      <c r="D120" t="n">
+        <v>98429.2619254624</v>
       </c>
       <c r="E120" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -2596,14 +2576,14 @@
       <c r="C121" t="s">
         <v>33</v>
       </c>
-      <c r="D121">
+      <c r="D121" t="n">
         <v>-30264.5805811065</v>
       </c>
       <c r="E121" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -2613,14 +2593,14 @@
       <c r="C122" t="s">
         <v>33</v>
       </c>
-      <c r="D122">
-        <v>29720.402291234601</v>
+      <c r="D122" t="n">
+        <v>29720.4022912346</v>
       </c>
       <c r="E122" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="A123" t="s">
         <v>13</v>
       </c>
@@ -2630,14 +2610,14 @@
       <c r="C123" t="s">
         <v>33</v>
       </c>
-      <c r="D123">
-        <v>15635.273959203399</v>
+      <c r="D123" t="n">
+        <v>15635.2739592034</v>
       </c>
       <c r="E123" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="A124" t="s">
         <v>17</v>
       </c>
@@ -2647,14 +2627,14 @@
       <c r="C124" t="s">
         <v>33</v>
       </c>
-      <c r="D124">
-        <v>-17304.979717485799</v>
+      <c r="D124" t="n">
+        <v>-17304.9797174858</v>
       </c>
       <c r="E124" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -2664,14 +2644,14 @@
       <c r="C125" t="s">
         <v>33</v>
       </c>
-      <c r="D125">
-        <v>12288.546497404301</v>
+      <c r="D125" t="n">
+        <v>12288.5464974043</v>
       </c>
       <c r="E125" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="A126" t="s">
         <v>14</v>
       </c>
@@ -2681,14 +2661,14 @@
       <c r="C126" t="s">
         <v>33</v>
       </c>
-      <c r="D126">
-        <v>-8356.5290124575695</v>
+      <c r="D126" t="n">
+        <v>-8356.52901245757</v>
       </c>
       <c r="E126" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="A127" t="s">
         <v>21</v>
       </c>
@@ -2698,14 +2678,14 @@
       <c r="C127" t="s">
         <v>33</v>
       </c>
-      <c r="D127">
-        <v>7185.8015976450997</v>
+      <c r="D127" t="n">
+        <v>7185.8015976451</v>
       </c>
       <c r="E127" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="A128" t="s">
         <v>37</v>
       </c>
@@ -2715,14 +2695,14 @@
       <c r="C128" t="s">
         <v>33</v>
       </c>
-      <c r="D128">
-        <v>-31005.461900009199</v>
+      <c r="D128" t="n">
+        <v>-31005.4619000092</v>
       </c>
       <c r="E128" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="A129" t="s">
         <v>36</v>
       </c>
@@ -2732,14 +2712,14 @@
       <c r="C129" t="s">
         <v>33</v>
       </c>
-      <c r="D129">
+      <c r="D129" t="n">
         <v>-15802.6685138459</v>
       </c>
       <c r="E129" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="A130" t="s">
         <v>40</v>
       </c>
@@ -2749,14 +2729,14 @@
       <c r="C130" t="s">
         <v>33</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>16224.8055142789</v>
       </c>
       <c r="E130" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="A131" t="s">
         <v>38</v>
       </c>
@@ -2766,14 +2746,14 @@
       <c r="C131" t="s">
         <v>33</v>
       </c>
-      <c r="D131">
+      <c r="D131" t="n">
         <v>-10936.2420910701</v>
       </c>
       <c r="E131" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="A132" t="s">
         <v>18</v>
       </c>
@@ -2783,14 +2763,14 @@
       <c r="C132" t="s">
         <v>33</v>
       </c>
-      <c r="D132">
-        <v>-2549.0343611010499</v>
+      <c r="D132" t="n">
+        <v>-2549.03436110105</v>
       </c>
       <c r="E132" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -2800,14 +2780,14 @@
       <c r="C133" t="s">
         <v>33</v>
       </c>
-      <c r="D133">
-        <v>-9255.9627591087301</v>
+      <c r="D133" t="n">
+        <v>-9255.96275910873</v>
       </c>
       <c r="E133" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="A134" t="s">
         <v>20</v>
       </c>
@@ -2817,14 +2797,14 @@
       <c r="C134" t="s">
         <v>33</v>
       </c>
-      <c r="D134">
-        <v>2799.8392792408299</v>
+      <c r="D134" t="n">
+        <v>2799.83927924083</v>
       </c>
       <c r="E134" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="A135" t="s">
         <v>44</v>
       </c>
@@ -2834,14 +2814,14 @@
       <c r="C135" t="s">
         <v>33</v>
       </c>
-      <c r="D135">
-        <v>3457.3247966038498</v>
+      <c r="D135" t="n">
+        <v>3457.32479660385</v>
       </c>
       <c r="E135" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="A136" t="s">
         <v>45</v>
       </c>
@@ -2851,14 +2831,14 @@
       <c r="C136" t="s">
         <v>33</v>
       </c>
-      <c r="D136">
-        <v>7826.9272011265002</v>
+      <c r="D136" t="n">
+        <v>7826.9272011265</v>
       </c>
       <c r="E136" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="A137" t="s">
         <v>46</v>
       </c>
@@ -2868,14 +2848,14 @@
       <c r="C137" t="s">
         <v>33</v>
       </c>
-      <c r="D137">
-        <v>-5458.9285146928296</v>
+      <c r="D137" t="n">
+        <v>-5458.92851469283</v>
       </c>
       <c r="E137" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="A138" t="s">
         <v>28</v>
       </c>
@@ -2885,14 +2865,14 @@
       <c r="C138" t="s">
         <v>33</v>
       </c>
-      <c r="D138">
-        <v>-33452.977479008798</v>
+      <c r="D138" t="n">
+        <v>-33452.9774790088</v>
       </c>
       <c r="E138" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="A139" t="s">
         <v>29</v>
       </c>
@@ -2902,14 +2882,14 @@
       <c r="C139" t="s">
         <v>33</v>
       </c>
-      <c r="D139">
-        <v>21699.639526068298</v>
+      <c r="D139" t="n">
+        <v>21699.6395260683</v>
       </c>
       <c r="E139" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -2919,14 +2899,14 @@
       <c r="C140" t="s">
         <v>33</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>4012.97015034275</v>
       </c>
       <c r="E140" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -2936,14 +2916,14 @@
       <c r="C141" t="s">
         <v>33</v>
       </c>
-      <c r="D141">
-        <v>3849.8417512036899</v>
+      <c r="D141" t="n">
+        <v>3849.84175120369</v>
       </c>
       <c r="E141" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2953,14 +2933,14 @@
       <c r="C142" t="s">
         <v>7</v>
       </c>
-      <c r="D142">
-        <v>1.8312478220934501</v>
+      <c r="D142" t="n">
+        <v>1.83124782209345</v>
       </c>
       <c r="E142" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -2970,14 +2950,14 @@
       <c r="C143" t="s">
         <v>7</v>
       </c>
-      <c r="D143">
+      <c r="D143" t="n">
         <v>1.25979981781288</v>
       </c>
       <c r="E143" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -2987,14 +2967,14 @@
       <c r="C144" t="s">
         <v>7</v>
       </c>
-      <c r="D144">
-        <v>3.4902547309391099</v>
+      <c r="D144" t="n">
+        <v>3.49025473093911</v>
       </c>
       <c r="E144" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="A145" t="s">
         <v>13</v>
       </c>
@@ -3004,14 +2984,14 @@
       <c r="C145" t="s">
         <v>7</v>
       </c>
-      <c r="D145">
-        <v>2.8229439191727899</v>
+      <c r="D145" t="n">
+        <v>2.82294391917279</v>
       </c>
       <c r="E145" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="A146" t="s">
         <v>14</v>
       </c>
@@ -3021,14 +3001,14 @@
       <c r="C146" t="s">
         <v>7</v>
       </c>
-      <c r="D146">
-        <v>-0.13575214791148299</v>
+      <c r="D146" t="n">
+        <v>-0.135752147911483</v>
       </c>
       <c r="E146" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="A147" t="s">
         <v>35</v>
       </c>
@@ -3038,14 +3018,14 @@
       <c r="C147" t="s">
         <v>7</v>
       </c>
-      <c r="D147">
-        <v>-0.30814901850835202</v>
+      <c r="D147" t="n">
+        <v>-0.308149018508352</v>
       </c>
       <c r="E147" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="A148" t="s">
         <v>23</v>
       </c>
@@ -3055,14 +3035,14 @@
       <c r="C148" t="s">
         <v>7</v>
       </c>
-      <c r="D148">
-        <v>2.5205283886671901</v>
+      <c r="D148" t="n">
+        <v>2.52052838866719</v>
       </c>
       <c r="E148" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -3072,14 +3052,14 @@
       <c r="C149" t="s">
         <v>7</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>2.62614548902804</v>
       </c>
       <c r="E149" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="A150" t="s">
         <v>17</v>
       </c>
@@ -3089,14 +3069,14 @@
       <c r="C150" t="s">
         <v>7</v>
       </c>
-      <c r="D150">
-        <v>0.46226655196430799</v>
+      <c r="D150" t="n">
+        <v>0.462266551964308</v>
       </c>
       <c r="E150" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="A151" t="s">
         <v>20</v>
       </c>
@@ -3106,14 +3086,14 @@
       <c r="C151" t="s">
         <v>7</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>1.47182019971022</v>
       </c>
       <c r="E151" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -3123,14 +3103,14 @@
       <c r="C152" t="s">
         <v>7</v>
       </c>
-      <c r="D152">
+      <c r="D152" t="n">
         <v>1.60770241767432</v>
       </c>
       <c r="E152" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="A153" t="s">
         <v>40</v>
       </c>
@@ -3140,14 +3120,14 @@
       <c r="C153" t="s">
         <v>7</v>
       </c>
-      <c r="D153">
-        <v>2.3704894036982598</v>
+      <c r="D153" t="n">
+        <v>2.37048940369826</v>
       </c>
       <c r="E153" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -3157,14 +3137,14 @@
       <c r="C154" t="s">
         <v>7</v>
       </c>
-      <c r="D154">
-        <v>1.2311408602973199</v>
+      <c r="D154" t="n">
+        <v>1.23114086029732</v>
       </c>
       <c r="E154" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -3174,14 +3154,14 @@
       <c r="C155" t="s">
         <v>7</v>
       </c>
-      <c r="D155">
-        <v>1.4370876666939301</v>
+      <c r="D155" t="n">
+        <v>1.43708766669393</v>
       </c>
       <c r="E155" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="A156" t="s">
         <v>36</v>
       </c>
@@ -3191,14 +3171,14 @@
       <c r="C156" t="s">
         <v>7</v>
       </c>
-      <c r="D156">
+      <c r="D156" t="n">
         <v>1.08494730264037</v>
       </c>
       <c r="E156" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="A157" t="s">
         <v>48</v>
       </c>
@@ -3208,14 +3188,14 @@
       <c r="C157" t="s">
         <v>7</v>
       </c>
-      <c r="D157">
-        <v>3.2189863796279399</v>
+      <c r="D157" t="n">
+        <v>3.21898637962794</v>
       </c>
       <c r="E157" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="A158" t="s">
         <v>49</v>
       </c>
@@ -3225,14 +3205,14 @@
       <c r="C158" t="s">
         <v>7</v>
       </c>
-      <c r="D158">
+      <c r="D158" t="n">
         <v>2.49267953620642</v>
       </c>
       <c r="E158" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="A159" t="s">
         <v>28</v>
       </c>
@@ -3242,14 +3222,14 @@
       <c r="C159" t="s">
         <v>7</v>
       </c>
-      <c r="D159">
-        <v>0.27915556158020199</v>
+      <c r="D159" t="n">
+        <v>0.279155561580202</v>
       </c>
       <c r="E159" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="A160" t="s">
         <v>29</v>
       </c>
@@ -3259,14 +3239,14 @@
       <c r="C160" t="s">
         <v>7</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>0.48822362030736</v>
       </c>
       <c r="E160" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="A161" t="s">
         <v>30</v>
       </c>
@@ -3276,14 +3256,14 @@
       <c r="C161" t="s">
         <v>7</v>
       </c>
-      <c r="D161">
-        <v>1.3190978555244901</v>
+      <c r="D161" t="n">
+        <v>1.31909785552449</v>
       </c>
       <c r="E161" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="A162" t="s">
         <v>31</v>
       </c>
@@ -3293,14 +3273,14 @@
       <c r="C162" t="s">
         <v>7</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>1.22130198489974</v>
       </c>
       <c r="E162" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3310,14 +3290,14 @@
       <c r="C163" t="s">
         <v>33</v>
       </c>
-      <c r="D163">
-        <v>711722.47717536101</v>
+      <c r="D163" t="n">
+        <v>711722.477175361</v>
       </c>
       <c r="E163" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -3327,14 +3307,14 @@
       <c r="C164" t="s">
         <v>33</v>
       </c>
-      <c r="D164">
-        <v>131400.78231706799</v>
+      <c r="D164" t="n">
+        <v>131400.782317068</v>
       </c>
       <c r="E164" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="A165" t="s">
         <v>11</v>
       </c>
@@ -3344,14 +3324,14 @@
       <c r="C165" t="s">
         <v>33</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>239496.661504391</v>
       </c>
       <c r="E165" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -3361,14 +3341,14 @@
       <c r="C166" t="s">
         <v>33</v>
       </c>
-      <c r="D166">
+      <c r="D166" t="n">
         <v>118894.120581282</v>
       </c>
       <c r="E166" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="A167" t="s">
         <v>14</v>
       </c>
@@ -3378,14 +3358,14 @@
       <c r="C167" t="s">
         <v>33</v>
       </c>
-      <c r="D167">
-        <v>-4660.6672571136196</v>
+      <c r="D167" t="n">
+        <v>-4660.66725711362</v>
       </c>
       <c r="E167" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="A168" t="s">
         <v>35</v>
       </c>
@@ -3395,14 +3375,14 @@
       <c r="C168" t="s">
         <v>33</v>
       </c>
-      <c r="D168">
-        <v>-6302.6165840016001</v>
+      <c r="D168" t="n">
+        <v>-6302.6165840016</v>
       </c>
       <c r="E168" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="A169" t="s">
         <v>23</v>
       </c>
@@ -3412,14 +3392,14 @@
       <c r="C169" t="s">
         <v>33</v>
       </c>
-      <c r="D169">
-        <v>45153.255783885601</v>
+      <c r="D169" t="n">
+        <v>45153.2557838856</v>
       </c>
       <c r="E169" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -3429,14 +3409,14 @@
       <c r="C170" t="s">
         <v>33</v>
       </c>
-      <c r="D170">
-        <v>41235.020899940202</v>
+      <c r="D170" t="n">
+        <v>41235.0208999402</v>
       </c>
       <c r="E170" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="A171" t="s">
         <v>17</v>
       </c>
@@ -3446,14 +3426,14 @@
       <c r="C171" t="s">
         <v>33</v>
       </c>
-      <c r="D171">
-        <v>7877.8494613995399</v>
+      <c r="D171" t="n">
+        <v>7877.84946139954</v>
       </c>
       <c r="E171" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -3463,14 +3443,14 @@
       <c r="C172" t="s">
         <v>33</v>
       </c>
-      <c r="D172">
-        <v>23254.554944855099</v>
+      <c r="D172" t="n">
+        <v>23254.5549448551</v>
       </c>
       <c r="E172" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="A173" t="s">
         <v>18</v>
       </c>
@@ -3480,14 +3460,14 @@
       <c r="C173" t="s">
         <v>33</v>
       </c>
-      <c r="D173">
-        <v>22934.097105124401</v>
+      <c r="D173" t="n">
+        <v>22934.0971051244</v>
       </c>
       <c r="E173" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="A174" t="s">
         <v>40</v>
       </c>
@@ -3497,14 +3477,14 @@
       <c r="C174" t="s">
         <v>33</v>
       </c>
-      <c r="D174">
+      <c r="D174" t="n">
         <v>32140.5945389833</v>
       </c>
       <c r="E174" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="A175" t="s">
         <v>15</v>
       </c>
@@ -3514,14 +3494,14 @@
       <c r="C175" t="s">
         <v>33</v>
       </c>
-      <c r="D175">
-        <v>17003.278708031899</v>
+      <c r="D175" t="n">
+        <v>17003.2787080319</v>
       </c>
       <c r="E175" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="A176" t="s">
         <v>21</v>
       </c>
@@ -3531,14 +3511,14 @@
       <c r="C176" t="s">
         <v>33</v>
       </c>
-      <c r="D176">
-        <v>18594.017337350298</v>
+      <c r="D176" t="n">
+        <v>18594.0173373503</v>
       </c>
       <c r="E176" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -3548,14 +3528,14 @@
       <c r="C177" t="s">
         <v>33</v>
       </c>
-      <c r="D177">
+      <c r="D177" t="n">
         <v>11426.9128366284</v>
       </c>
       <c r="E177" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="A178" t="s">
         <v>48</v>
       </c>
@@ -3565,14 +3545,14 @@
       <c r="C178" t="s">
         <v>33</v>
       </c>
-      <c r="D178">
-        <v>24102.428636693599</v>
+      <c r="D178" t="n">
+        <v>24102.4286366936</v>
       </c>
       <c r="E178" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="A179" t="s">
         <v>49</v>
       </c>
@@ -3582,14 +3562,14 @@
       <c r="C179" t="s">
         <v>33</v>
       </c>
-      <c r="D179">
+      <c r="D179" t="n">
         <v>18050.4387935901</v>
       </c>
       <c r="E179" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -3599,14 +3579,14 @@
       <c r="C180" t="s">
         <v>33</v>
       </c>
-      <c r="D180">
-        <v>27133.873294155299</v>
+      <c r="D180" t="n">
+        <v>27133.8732941553</v>
       </c>
       <c r="E180" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -3616,14 +3596,14 @@
       <c r="C181" t="s">
         <v>33</v>
       </c>
-      <c r="D181">
+      <c r="D181" t="n">
         <v>26353.624866421</v>
       </c>
       <c r="E181" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -3633,14 +3613,14 @@
       <c r="C182" t="s">
         <v>33</v>
       </c>
-      <c r="D182">
+      <c r="D182" t="n">
         <v>62445.2774847447</v>
       </c>
       <c r="E182" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -3650,14 +3630,14 @@
       <c r="C183" t="s">
         <v>33</v>
       </c>
-      <c r="D183">
+      <c r="D183" t="n">
         <v>18273.0625313778</v>
       </c>
       <c r="E183" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -3667,14 +3647,14 @@
       <c r="C184" t="s">
         <v>7</v>
       </c>
-      <c r="D184">
-        <v>0.79941925233637501</v>
+      <c r="D184" t="n">
+        <v>0.799419252336375</v>
       </c>
       <c r="E184" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="A185" t="s">
         <v>11</v>
       </c>
@@ -3684,14 +3664,14 @@
       <c r="C185" t="s">
         <v>7</v>
       </c>
-      <c r="D185">
-        <v>0.63099578282115298</v>
+      <c r="D185" t="n">
+        <v>0.630995782821153</v>
       </c>
       <c r="E185" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="A186" t="s">
         <v>35</v>
       </c>
@@ -3701,14 +3681,14 @@
       <c r="C186" t="s">
         <v>7</v>
       </c>
-      <c r="D186">
-        <v>0.47821447875662199</v>
+      <c r="D186" t="n">
+        <v>0.478214478756622</v>
       </c>
       <c r="E186" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -3718,14 +3698,14 @@
       <c r="C187" t="s">
         <v>7</v>
       </c>
-      <c r="D187">
-        <v>0.64072678602666899</v>
+      <c r="D187" t="n">
+        <v>0.640726786026669</v>
       </c>
       <c r="E187" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188" t="s">
         <v>45</v>
       </c>
@@ -3735,14 +3715,14 @@
       <c r="C188" t="s">
         <v>7</v>
       </c>
-      <c r="D188">
-        <v>2.6748946646645102</v>
+      <c r="D188" t="n">
+        <v>2.67489466466451</v>
       </c>
       <c r="E188" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189" t="s">
         <v>20</v>
       </c>
@@ -3752,14 +3732,14 @@
       <c r="C189" t="s">
         <v>7</v>
       </c>
-      <c r="D189">
-        <v>0.59955812311762702</v>
+      <c r="D189" t="n">
+        <v>0.599558123117627</v>
       </c>
       <c r="E189" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="A190" t="s">
         <v>22</v>
       </c>
@@ -3769,14 +3749,14 @@
       <c r="C190" t="s">
         <v>7</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>2.86619689110326</v>
       </c>
       <c r="E190" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="A191" t="s">
         <v>51</v>
       </c>
@@ -3786,14 +3766,14 @@
       <c r="C191" t="s">
         <v>7</v>
       </c>
-      <c r="D191">
-        <v>0.81177830105825199</v>
+      <c r="D191" t="n">
+        <v>0.811778301058252</v>
       </c>
       <c r="E191" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -3803,14 +3783,14 @@
       <c r="C192" t="s">
         <v>7</v>
       </c>
-      <c r="D192">
+      <c r="D192" t="n">
         <v>1.20237515515211</v>
       </c>
       <c r="E192" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="A193" t="s">
         <v>52</v>
       </c>
@@ -3820,14 +3800,14 @@
       <c r="C193" t="s">
         <v>7</v>
       </c>
-      <c r="D193">
-        <v>0.68185670587466196</v>
+      <c r="D193" t="n">
+        <v>0.681856705874662</v>
       </c>
       <c r="E193" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="A194" t="s">
         <v>13</v>
       </c>
@@ -3837,14 +3817,14 @@
       <c r="C194" t="s">
         <v>7</v>
       </c>
-      <c r="D194">
-        <v>0.71859389020856301</v>
+      <c r="D194" t="n">
+        <v>0.718593890208563</v>
       </c>
       <c r="E194" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="A195" t="s">
         <v>53</v>
       </c>
@@ -3854,14 +3834,14 @@
       <c r="C195" t="s">
         <v>7</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>2.04344565123797</v>
       </c>
       <c r="E195" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="A196" t="s">
         <v>54</v>
       </c>
@@ -3871,14 +3851,14 @@
       <c r="C196" t="s">
         <v>7</v>
       </c>
-      <c r="D196">
-        <v>2.2366677107626298</v>
+      <c r="D196" t="n">
+        <v>2.23666771076263</v>
       </c>
       <c r="E196" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="A197" t="s">
         <v>55</v>
       </c>
@@ -3888,14 +3868,14 @@
       <c r="C197" t="s">
         <v>7</v>
       </c>
-      <c r="D197">
-        <v>1.7868320822344499</v>
+      <c r="D197" t="n">
+        <v>1.78683208223445</v>
       </c>
       <c r="E197" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="A198" t="s">
         <v>48</v>
       </c>
@@ -3905,14 +3885,14 @@
       <c r="C198" t="s">
         <v>7</v>
       </c>
-      <c r="D198">
-        <v>1.3317061495511799</v>
+      <c r="D198" t="n">
+        <v>1.33170614955118</v>
       </c>
       <c r="E198" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="A199" t="s">
         <v>36</v>
       </c>
@@ -3922,14 +3902,14 @@
       <c r="C199" t="s">
         <v>7</v>
       </c>
-      <c r="D199">
-        <v>-0.68576672597036004</v>
+      <c r="D199" t="n">
+        <v>-0.68576672597036</v>
       </c>
       <c r="E199" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="A200" t="s">
         <v>41</v>
       </c>
@@ -3939,14 +3919,14 @@
       <c r="C200" t="s">
         <v>7</v>
       </c>
-      <c r="D200">
-        <v>-2.6070642730513498</v>
+      <c r="D200" t="n">
+        <v>-2.60706427305135</v>
       </c>
       <c r="E200" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201">
       <c r="A201" t="s">
         <v>21</v>
       </c>
@@ -3956,14 +3936,14 @@
       <c r="C201" t="s">
         <v>7</v>
       </c>
-      <c r="D201">
+      <c r="D201" t="n">
         <v>1.39445078272129</v>
       </c>
       <c r="E201" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -3973,14 +3953,14 @@
       <c r="C202" t="s">
         <v>7</v>
       </c>
-      <c r="D202">
-        <v>1.6823409134660201</v>
+      <c r="D202" t="n">
+        <v>1.68234091346602</v>
       </c>
       <c r="E202" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203">
       <c r="A203" t="s">
         <v>44</v>
       </c>
@@ -3990,14 +3970,14 @@
       <c r="C203" t="s">
         <v>7</v>
       </c>
-      <c r="D203">
-        <v>2.2003158265457401</v>
+      <c r="D203" t="n">
+        <v>2.20031582654574</v>
       </c>
       <c r="E203" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204">
       <c r="A204" t="s">
         <v>17</v>
       </c>
@@ -4007,14 +3987,14 @@
       <c r="C204" t="s">
         <v>7</v>
       </c>
-      <c r="D204">
+      <c r="D204" t="n">
         <v>0.113499096730973</v>
       </c>
       <c r="E204" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205">
       <c r="A205" t="s">
         <v>56</v>
       </c>
@@ -4024,14 +4004,14 @@
       <c r="C205" t="s">
         <v>7</v>
       </c>
-      <c r="D205">
+      <c r="D205" t="n">
         <v>-1.91450543580968</v>
       </c>
       <c r="E205" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206">
       <c r="A206" t="s">
         <v>57</v>
       </c>
@@ -4041,14 +4021,14 @@
       <c r="C206" t="s">
         <v>7</v>
       </c>
-      <c r="D206">
-        <v>0.19917725152784899</v>
+      <c r="D206" t="n">
+        <v>0.199177251527849</v>
       </c>
       <c r="E206" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207">
       <c r="A207" t="s">
         <v>58</v>
       </c>
@@ -4058,14 +4038,14 @@
       <c r="C207" t="s">
         <v>7</v>
       </c>
-      <c r="D207">
+      <c r="D207" t="n">
         <v>2.34795950307642</v>
       </c>
       <c r="E207" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208">
       <c r="A208" t="s">
         <v>37</v>
       </c>
@@ -4075,14 +4055,14 @@
       <c r="C208" t="s">
         <v>7</v>
       </c>
-      <c r="D208">
-        <v>0.38894892570238099</v>
+      <c r="D208" t="n">
+        <v>0.388948925702381</v>
       </c>
       <c r="E208" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209">
       <c r="A209" t="s">
         <v>15</v>
       </c>
@@ -4092,14 +4072,14 @@
       <c r="C209" t="s">
         <v>7</v>
       </c>
-      <c r="D209">
+      <c r="D209" t="n">
         <v>-1.79139667096219</v>
       </c>
       <c r="E209" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210">
       <c r="A210" t="s">
         <v>39</v>
       </c>
@@ -4109,14 +4089,14 @@
       <c r="C210" t="s">
         <v>7</v>
       </c>
-      <c r="D210">
-        <v>0.53139809643740799</v>
+      <c r="D210" t="n">
+        <v>0.531398096437408</v>
       </c>
       <c r="E210" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211">
       <c r="A211" t="s">
         <v>59</v>
       </c>
@@ -4126,14 +4106,14 @@
       <c r="C211" t="s">
         <v>7</v>
       </c>
-      <c r="D211">
-        <v>2.7132544964235898</v>
+      <c r="D211" t="n">
+        <v>2.71325449642359</v>
       </c>
       <c r="E211" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212">
       <c r="A212" t="s">
         <v>60</v>
       </c>
@@ -4143,14 +4123,14 @@
       <c r="C212" t="s">
         <v>7</v>
       </c>
-      <c r="D212">
-        <v>1.2140120374863901</v>
+      <c r="D212" t="n">
+        <v>1.21401203748639</v>
       </c>
       <c r="E212" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -4160,14 +4140,14 @@
       <c r="C213" t="s">
         <v>7</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>-0.146899228140729</v>
       </c>
       <c r="E213" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214">
       <c r="A214" t="s">
         <v>26</v>
       </c>
@@ -4177,14 +4157,14 @@
       <c r="C214" t="s">
         <v>7</v>
       </c>
-      <c r="D214">
-        <v>-0.38378920464810001</v>
+      <c r="D214" t="n">
+        <v>-0.3837892046481</v>
       </c>
       <c r="E214" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215">
       <c r="A215" t="s">
         <v>42</v>
       </c>
@@ -4194,14 +4174,14 @@
       <c r="C215" t="s">
         <v>7</v>
       </c>
-      <c r="D215">
-        <v>0.48763296702931702</v>
+      <c r="D215" t="n">
+        <v>0.487632967029317</v>
       </c>
       <c r="E215" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216">
       <c r="A216" t="s">
         <v>28</v>
       </c>
@@ -4211,14 +4191,14 @@
       <c r="C216" t="s">
         <v>7</v>
       </c>
-      <c r="D216">
-        <v>-2.5923868802746299E-2</v>
+      <c r="D216" t="n">
+        <v>-0.0259238688027463</v>
       </c>
       <c r="E216" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217">
       <c r="A217" t="s">
         <v>29</v>
       </c>
@@ -4228,14 +4208,14 @@
       <c r="C217" t="s">
         <v>7</v>
       </c>
-      <c r="D217">
-        <v>-0.19375932885093999</v>
+      <c r="D217" t="n">
+        <v>-0.19375932885094</v>
       </c>
       <c r="E217" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -4245,14 +4225,14 @@
       <c r="C218" t="s">
         <v>7</v>
       </c>
-      <c r="D218">
-        <v>1.4251419295715899</v>
+      <c r="D218" t="n">
+        <v>1.42514192957159</v>
       </c>
       <c r="E218" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219">
       <c r="A219" t="s">
         <v>31</v>
       </c>
@@ -4262,14 +4242,14 @@
       <c r="C219" t="s">
         <v>7</v>
       </c>
-      <c r="D219">
+      <c r="D219" t="n">
         <v>1.00713405539492</v>
       </c>
       <c r="E219" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -4279,14 +4259,14 @@
       <c r="C220" t="s">
         <v>33</v>
       </c>
-      <c r="D220">
-        <v>79876.887195101706</v>
+      <c r="D220" t="n">
+        <v>79876.8871951017</v>
       </c>
       <c r="E220" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221">
       <c r="A221" t="s">
         <v>11</v>
       </c>
@@ -4296,14 +4276,14 @@
       <c r="C221" t="s">
         <v>33</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>39625.6646277361</v>
       </c>
       <c r="E221" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222">
       <c r="A222" t="s">
         <v>35</v>
       </c>
@@ -4313,14 +4293,14 @@
       <c r="C222" t="s">
         <v>33</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>21754.5148098028</v>
       </c>
       <c r="E222" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223">
       <c r="A223" t="s">
         <v>9</v>
       </c>
@@ -4330,14 +4310,14 @@
       <c r="C223" t="s">
         <v>33</v>
       </c>
-      <c r="D223">
-        <v>24666.453880744601</v>
+      <c r="D223" t="n">
+        <v>24666.4538807446</v>
       </c>
       <c r="E223" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224">
       <c r="A224" t="s">
         <v>45</v>
       </c>
@@ -4347,14 +4327,14 @@
       <c r="C224" t="s">
         <v>33</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>38139.6464772244</v>
       </c>
       <c r="E224" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225">
       <c r="A225" t="s">
         <v>20</v>
       </c>
@@ -4364,14 +4344,14 @@
       <c r="C225" t="s">
         <v>33</v>
       </c>
-      <c r="D225">
-        <v>9203.2340266239207</v>
+      <c r="D225" t="n">
+        <v>9203.23402662392</v>
       </c>
       <c r="E225" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226">
       <c r="A226" t="s">
         <v>22</v>
       </c>
@@ -4381,14 +4361,14 @@
       <c r="C226" t="s">
         <v>33</v>
       </c>
-      <c r="D226">
-        <v>33559.822799729598</v>
+      <c r="D226" t="n">
+        <v>33559.8227997296</v>
       </c>
       <c r="E226" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227">
       <c r="A227" t="s">
         <v>51</v>
       </c>
@@ -4398,14 +4378,14 @@
       <c r="C227" t="s">
         <v>33</v>
       </c>
-      <c r="D227">
-        <v>9934.7437580627193</v>
+      <c r="D227" t="n">
+        <v>9934.74375806272</v>
       </c>
       <c r="E227" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228">
       <c r="A228" t="s">
         <v>23</v>
       </c>
@@ -4415,14 +4395,14 @@
       <c r="C228" t="s">
         <v>33</v>
       </c>
-      <c r="D228">
+      <c r="D228" t="n">
         <v>11005.2511797894</v>
       </c>
       <c r="E228" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229">
       <c r="A229" t="s">
         <v>52</v>
       </c>
@@ -4432,14 +4412,14 @@
       <c r="C229" t="s">
         <v>33</v>
       </c>
-      <c r="D229">
-        <v>6192.9155649985596</v>
+      <c r="D229" t="n">
+        <v>6192.91556499856</v>
       </c>
       <c r="E229" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230">
       <c r="A230" t="s">
         <v>13</v>
       </c>
@@ -4449,14 +4429,14 @@
       <c r="C230" t="s">
         <v>33</v>
       </c>
-      <c r="D230">
-        <v>6457.9203844432604</v>
+      <c r="D230" t="n">
+        <v>6457.92038444326</v>
       </c>
       <c r="E230" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231">
       <c r="A231" t="s">
         <v>53</v>
       </c>
@@ -4466,14 +4446,14 @@
       <c r="C231" t="s">
         <v>33</v>
       </c>
-      <c r="D231">
-        <v>15037.147401927999</v>
+      <c r="D231" t="n">
+        <v>15037.147401928</v>
       </c>
       <c r="E231" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232">
       <c r="A232" t="s">
         <v>54</v>
       </c>
@@ -4483,14 +4463,14 @@
       <c r="C232" t="s">
         <v>33</v>
       </c>
-      <c r="D232">
+      <c r="D232" t="n">
         <v>16096.6237969385</v>
       </c>
       <c r="E232" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233">
       <c r="A233" t="s">
         <v>55</v>
       </c>
@@ -4500,14 +4480,14 @@
       <c r="C233" t="s">
         <v>33</v>
       </c>
-      <c r="D233">
-        <v>13099.080290584199</v>
+      <c r="D233" t="n">
+        <v>13099.0802905842</v>
       </c>
       <c r="E233" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234">
       <c r="A234" t="s">
         <v>48</v>
       </c>
@@ -4517,14 +4497,14 @@
       <c r="C234" t="s">
         <v>33</v>
       </c>
-      <c r="D234">
-        <v>9812.9199405830404</v>
+      <c r="D234" t="n">
+        <v>9812.91994058304</v>
       </c>
       <c r="E234" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235">
       <c r="A235" t="s">
         <v>36</v>
       </c>
@@ -4534,14 +4514,14 @@
       <c r="C235" t="s">
         <v>33</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>-5160.19111075811</v>
       </c>
       <c r="E235" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236">
       <c r="A236" t="s">
         <v>41</v>
       </c>
@@ -4551,14 +4531,14 @@
       <c r="C236" t="s">
         <v>33</v>
       </c>
-      <c r="D236">
-        <v>-20424.805346184399</v>
+      <c r="D236" t="n">
+        <v>-20424.8053461844</v>
       </c>
       <c r="E236" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237">
       <c r="A237" t="s">
         <v>21</v>
       </c>
@@ -4568,14 +4548,14 @@
       <c r="C237" t="s">
         <v>33</v>
       </c>
-      <c r="D237">
+      <c r="D237" t="n">
         <v>7922.23272906279</v>
       </c>
       <c r="E237" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238">
       <c r="A238" t="s">
         <v>40</v>
       </c>
@@ -4585,14 +4565,14 @@
       <c r="C238" t="s">
         <v>33</v>
       </c>
-      <c r="D238">
-        <v>9326.4555758495007</v>
+      <c r="D238" t="n">
+        <v>9326.4555758495</v>
       </c>
       <c r="E238" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239">
       <c r="A239" t="s">
         <v>44</v>
       </c>
@@ -4602,14 +4582,14 @@
       <c r="C239" t="s">
         <v>33</v>
       </c>
-      <c r="D239">
+      <c r="D239" t="n">
         <v>11762.8215632751</v>
       </c>
       <c r="E239" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -4619,14 +4599,14 @@
       <c r="C240" t="s">
         <v>33</v>
       </c>
-      <c r="D240">
-        <v>608.87870722453204</v>
+      <c r="D240" t="n">
+        <v>608.878707224532</v>
       </c>
       <c r="E240" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241">
       <c r="A241" t="s">
         <v>56</v>
       </c>
@@ -4636,14 +4616,14 @@
       <c r="C241" t="s">
         <v>33</v>
       </c>
-      <c r="D241">
+      <c r="D241" t="n">
         <v>-10114.6537352993</v>
       </c>
       <c r="E241" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242">
       <c r="A242" t="s">
         <v>57</v>
       </c>
@@ -4653,14 +4633,14 @@
       <c r="C242" t="s">
         <v>33</v>
       </c>
-      <c r="D242">
-        <v>830.74653776984599</v>
+      <c r="D242" t="n">
+        <v>830.746537769846</v>
       </c>
       <c r="E242" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243">
       <c r="A243" t="s">
         <v>58</v>
       </c>
@@ -4670,14 +4650,14 @@
       <c r="C243" t="s">
         <v>33</v>
       </c>
-      <c r="D243">
-        <v>8705.2794066859897</v>
+      <c r="D243" t="n">
+        <v>8705.27940668599</v>
       </c>
       <c r="E243" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244">
       <c r="A244" t="s">
         <v>37</v>
       </c>
@@ -4687,14 +4667,14 @@
       <c r="C244" t="s">
         <v>33</v>
       </c>
-      <c r="D244">
+      <c r="D244" t="n">
         <v>1557.72223906626</v>
       </c>
       <c r="E244" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245">
       <c r="A245" t="s">
         <v>15</v>
       </c>
@@ -4704,14 +4684,14 @@
       <c r="C245" t="s">
         <v>33</v>
       </c>
-      <c r="D245">
-        <v>-7882.1971414051304</v>
+      <c r="D245" t="n">
+        <v>-7882.19714140513</v>
       </c>
       <c r="E245" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246">
       <c r="A246" t="s">
         <v>39</v>
       </c>
@@ -4721,14 +4701,14 @@
       <c r="C246" t="s">
         <v>33</v>
       </c>
-      <c r="D246">
-        <v>2090.9825135790702</v>
+      <c r="D246" t="n">
+        <v>2090.98251357907</v>
       </c>
       <c r="E246" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247">
       <c r="A247" t="s">
         <v>59</v>
       </c>
@@ -4738,14 +4718,14 @@
       <c r="C247" t="s">
         <v>33</v>
       </c>
-      <c r="D247">
-        <v>9484.9953707679906</v>
+      <c r="D247" t="n">
+        <v>9484.99537076799</v>
       </c>
       <c r="E247" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248">
       <c r="A248" t="s">
         <v>60</v>
       </c>
@@ -4755,14 +4735,14 @@
       <c r="C248" t="s">
         <v>33</v>
       </c>
-      <c r="D248">
-        <v>4394.8553762542897</v>
+      <c r="D248" t="n">
+        <v>4394.85537625429</v>
       </c>
       <c r="E248" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249">
       <c r="A249" t="s">
         <v>19</v>
       </c>
@@ -4772,14 +4752,14 @@
       <c r="C249" t="s">
         <v>33</v>
       </c>
-      <c r="D249">
-        <v>-562.09456689242495</v>
+      <c r="D249" t="n">
+        <v>-562.094566892425</v>
       </c>
       <c r="E249" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250">
       <c r="A250" t="s">
         <v>26</v>
       </c>
@@ -4789,14 +4769,14 @@
       <c r="C250" t="s">
         <v>33</v>
       </c>
-      <c r="D250">
-        <v>-1427.7399572572399</v>
+      <c r="D250" t="n">
+        <v>-1427.73995725724</v>
       </c>
       <c r="E250" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251">
       <c r="A251" t="s">
         <v>42</v>
       </c>
@@ -4806,14 +4786,14 @@
       <c r="C251" t="s">
         <v>33</v>
       </c>
-      <c r="D251">
-        <v>1711.2073017135299</v>
+      <c r="D251" t="n">
+        <v>1711.20730171353</v>
       </c>
       <c r="E251" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252">
       <c r="A252" t="s">
         <v>28</v>
       </c>
@@ -4823,14 +4803,14 @@
       <c r="C252" t="s">
         <v>33</v>
       </c>
-      <c r="D252">
-        <v>-734.01842580723996</v>
+      <c r="D252" t="n">
+        <v>-734.01842580724</v>
       </c>
       <c r="E252" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253">
       <c r="A253" t="s">
         <v>29</v>
       </c>
@@ -4840,14 +4820,14 @@
       <c r="C253" t="s">
         <v>33</v>
       </c>
-      <c r="D253">
-        <v>-5460.2602761723701</v>
+      <c r="D253" t="n">
+        <v>-5460.26027617237</v>
       </c>
       <c r="E253" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254">
       <c r="A254" t="s">
         <v>30</v>
       </c>
@@ -4857,14 +4837,14 @@
       <c r="C254" t="s">
         <v>33</v>
       </c>
-      <c r="D254">
-        <v>35427.590863414698</v>
+      <c r="D254" t="n">
+        <v>35427.5908634147</v>
       </c>
       <c r="E254" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255">
       <c r="A255" t="s">
         <v>31</v>
       </c>
@@ -4874,7 +4854,7 @@
       <c r="C255" t="s">
         <v>33</v>
       </c>
-      <c r="D255">
+      <c r="D255" t="n">
         <v>30854.5692520005</v>
       </c>
       <c r="E255" t="s">
@@ -4883,6 +4863,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results/results.xlsx
+++ b/Results/results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t xml:space="preserve">Country</t>
   </si>
@@ -143,33 +143,126 @@
     <t xml:space="preserve">Egypt, Arab Rep.</t>
   </si>
   <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela, RB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiwan, China</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vietnam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
     <t xml:space="preserve">IPCC_AR5_chapter_9_GHG_2010</t>
   </si>
   <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uzbekistan</t>
   </si>
   <si>
     <t xml:space="preserve">IPCC_AR5_chapter_10_GHG_2010</t>
   </si>
   <si>
-    <t xml:space="preserve">Vietnam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
     <t xml:space="preserve">IPCC_AR5_chapter_11_GHG_2010</t>
   </si>
   <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
@@ -179,22 +272,10 @@
     <t xml:space="preserve">Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
   </si>
 </sst>
 </file>
@@ -1667,16 +1748,16 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>7</v>
       </c>
       <c r="D68" t="n">
-        <v>0.381705102687846</v>
+        <v>1.20736467923754</v>
       </c>
       <c r="E68" t="s">
         <v>34</v>
@@ -1684,16 +1765,16 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>7</v>
       </c>
       <c r="D69" t="n">
-        <v>1.7359650109575</v>
+        <v>4.80579422473184</v>
       </c>
       <c r="E69" t="s">
         <v>34</v>
@@ -1701,16 +1782,16 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
       </c>
       <c r="D70" t="n">
-        <v>2.73302328336378</v>
+        <v>0.428865151725599</v>
       </c>
       <c r="E70" t="s">
         <v>34</v>
@@ -1718,16 +1799,16 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B71" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C71" t="s">
         <v>7</v>
       </c>
       <c r="D71" t="n">
-        <v>3.23543738121461</v>
+        <v>0.806382564281583</v>
       </c>
       <c r="E71" t="s">
         <v>34</v>
@@ -1735,16 +1816,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D72" t="n">
-        <v>28316.5555990892</v>
+        <v>4.88439266264487</v>
       </c>
       <c r="E72" t="s">
         <v>34</v>
@@ -1752,16 +1833,16 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
         <v>6</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D73" t="n">
-        <v>264335.65561103</v>
+        <v>-2.3908177120586</v>
       </c>
       <c r="E73" t="s">
         <v>34</v>
@@ -1769,16 +1850,16 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D74" t="n">
-        <v>86948.8068531705</v>
+        <v>0.9357471293157</v>
       </c>
       <c r="E74" t="s">
         <v>34</v>
@@ -1786,16 +1867,16 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D75" t="n">
-        <v>2360.67016775906</v>
+        <v>4.91200498031723</v>
       </c>
       <c r="E75" t="s">
         <v>34</v>
@@ -1803,16 +1884,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>-9466.77554192257</v>
+        <v>1.43672572125129</v>
       </c>
       <c r="E76" t="s">
         <v>34</v>
@@ -1820,16 +1901,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D77" t="n">
-        <v>16088.1334511876</v>
+        <v>0.352323514128861</v>
       </c>
       <c r="E77" t="s">
         <v>34</v>
@@ -1837,16 +1918,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
         <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D78" t="n">
-        <v>15851.7470989858</v>
+        <v>1.09653997291523</v>
       </c>
       <c r="E78" t="s">
         <v>34</v>
@@ -1854,16 +1935,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D79" t="n">
-        <v>10918.9631518128</v>
+        <v>-1.55927286686207</v>
       </c>
       <c r="E79" t="s">
         <v>34</v>
@@ -1871,16 +1952,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B80" t="s">
         <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D80" t="n">
-        <v>4978.04391992136</v>
+        <v>3.19167139950085</v>
       </c>
       <c r="E80" t="s">
         <v>34</v>
@@ -1888,16 +1969,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D81" t="n">
-        <v>30447.3712318829</v>
+        <v>-0.497789939772886</v>
       </c>
       <c r="E81" t="s">
         <v>34</v>
@@ -1905,16 +1986,16 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D82" t="n">
-        <v>41683.0505455221</v>
+        <v>0.18870594292697</v>
       </c>
       <c r="E82" t="s">
         <v>34</v>
@@ -1922,16 +2003,16 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>33117.4013952894</v>
+        <v>2.48415201032577</v>
       </c>
       <c r="E83" t="s">
         <v>34</v>
@@ -1939,16 +2020,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D84" t="n">
-        <v>3208.43152368354</v>
+        <v>0.699318472917265</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
@@ -1956,16 +2037,16 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D85" t="n">
-        <v>-10743.3657263721</v>
+        <v>-5.27687782091805</v>
       </c>
       <c r="E85" t="s">
         <v>34</v>
@@ -1973,16 +2054,16 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D86" t="n">
-        <v>-4066.50686259124</v>
+        <v>3.53074854547595</v>
       </c>
       <c r="E86" t="s">
         <v>34</v>
@@ -1990,16 +2071,16 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D87" t="n">
-        <v>14480.6881461379</v>
+        <v>-0.84400191570998</v>
       </c>
       <c r="E87" t="s">
         <v>34</v>
@@ -2007,16 +2088,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
-        <v>7250.45116487707</v>
+        <v>0.133511215522453</v>
       </c>
       <c r="E88" t="s">
         <v>34</v>
@@ -2024,16 +2105,16 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D89" t="n">
-        <v>-9162.30488862628</v>
+        <v>-0.703719017158111</v>
       </c>
       <c r="E89" t="s">
         <v>34</v>
@@ -2041,16 +2122,16 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D90" t="n">
-        <v>42710.9048469006</v>
+        <v>0.603677315924478</v>
       </c>
       <c r="E90" t="s">
         <v>34</v>
@@ -2058,16 +2139,16 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D91" t="n">
-        <v>9414.20300817386</v>
+        <v>-3.22752211730767</v>
       </c>
       <c r="E91" t="s">
         <v>34</v>
@@ -2075,16 +2156,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>20139.1533169574</v>
+        <v>0.355074227041285</v>
       </c>
       <c r="E92" t="s">
         <v>34</v>
@@ -2092,16 +2173,16 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>13624.7610663412</v>
+        <v>1.99482691868871</v>
       </c>
       <c r="E93" t="s">
         <v>34</v>
@@ -2109,16 +2190,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>17275.6044765876</v>
+        <v>5.66087385600382</v>
       </c>
       <c r="E94" t="s">
         <v>34</v>
@@ -2126,16 +2207,16 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>49813.5700674641</v>
+        <v>-0.856362608607408</v>
       </c>
       <c r="E95" t="s">
         <v>34</v>
@@ -2143,16 +2224,16 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>61867.4954068364</v>
+        <v>2.24800532249048</v>
       </c>
       <c r="E96" t="s">
         <v>34</v>
@@ -2160,16 +2241,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>15248.3738276206</v>
+        <v>1.91563511432895</v>
       </c>
       <c r="E97" t="s">
         <v>34</v>
@@ -2177,7 +2258,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="B98" t="s">
         <v>6</v>
@@ -2186,15 +2267,15 @@
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>2.13051390843702</v>
+        <v>2.73907299550145</v>
       </c>
       <c r="E98" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -2203,49 +2284,49 @@
         <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.686479796530681</v>
+        <v>1.18736778482471</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>2.26531737433753</v>
+        <v>-0.487744093652998</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
       </c>
       <c r="D101" t="n">
-        <v>1.32656587797906</v>
+        <v>6.35226561042974</v>
       </c>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -2254,32 +2335,32 @@
         <v>7</v>
       </c>
       <c r="D102" t="n">
-        <v>-1.44300092831338</v>
+        <v>0.533612095196978</v>
       </c>
       <c r="E102" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
       </c>
       <c r="D103" t="n">
-        <v>1.2167698904487</v>
+        <v>1.33274649707633</v>
       </c>
       <c r="E103" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B104" t="s">
         <v>10</v>
@@ -2288,15 +2369,15 @@
         <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.865043636300855</v>
+        <v>-0.224630977697549</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B105" t="s">
         <v>10</v>
@@ -2305,253 +2386,253 @@
         <v>7</v>
       </c>
       <c r="D105" t="n">
-        <v>1.13642892239947</v>
+        <v>-1.75068307833174</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
       </c>
       <c r="D106" t="n">
-        <v>-4.26166926336298</v>
+        <v>4.02143761656959</v>
       </c>
       <c r="E106" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>-2.41455739859662</v>
+        <v>21.5934793621465</v>
       </c>
       <c r="E107" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>3.37317623884903</v>
+        <v>0.342295752593924</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>-1.8601551067406</v>
+        <v>2.06414588797021</v>
       </c>
       <c r="E109" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.605399900883874</v>
+        <v>4.02685170894446</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
       </c>
       <c r="D111" t="n">
-        <v>-2.1903578009402</v>
+        <v>3.23543738121461</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D112" t="n">
-        <v>0.901655388055644</v>
+        <v>28316.5555990892</v>
       </c>
       <c r="E112" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D113" t="n">
-        <v>1.29212484530798</v>
+        <v>264335.65561103</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B114" t="s">
         <v>12</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D114" t="n">
-        <v>3.42957774019357</v>
+        <v>86948.8068531705</v>
       </c>
       <c r="E114" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D115" t="n">
-        <v>-2.21079743332243</v>
+        <v>2360.67016775906</v>
       </c>
       <c r="E115" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D116" t="n">
-        <v>-1.66808735514706</v>
+        <v>-9466.77554192257</v>
       </c>
       <c r="E116" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D117" t="n">
-        <v>1.32311554482296</v>
+        <v>16088.1334511876</v>
       </c>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D118" t="n">
-        <v>0.381435349046133</v>
+        <v>15851.7470989858</v>
       </c>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D119" t="n">
-        <v>0.738259252722129</v>
+        <v>10918.9631518128</v>
       </c>
       <c r="E119" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B120" t="s">
         <v>6</v>
@@ -2560,66 +2641,66 @@
         <v>33</v>
       </c>
       <c r="D120" t="n">
-        <v>98429.2619254624</v>
+        <v>4978.04391992136</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>33</v>
       </c>
       <c r="D121" t="n">
-        <v>-30264.5805811065</v>
+        <v>30447.3712318829</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
         <v>33</v>
       </c>
       <c r="D122" t="n">
-        <v>29720.4022912346</v>
+        <v>41683.0505455221</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C123" t="s">
         <v>33</v>
       </c>
       <c r="D123" t="n">
-        <v>15635.2739592034</v>
+        <v>33117.4013952894</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -2628,32 +2709,32 @@
         <v>33</v>
       </c>
       <c r="D124" t="n">
-        <v>-17304.9797174858</v>
+        <v>3208.43152368354</v>
       </c>
       <c r="E124" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
         <v>33</v>
       </c>
       <c r="D125" t="n">
-        <v>12288.5464974043</v>
+        <v>-10743.3657263721</v>
       </c>
       <c r="E125" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -2662,15 +2743,15 @@
         <v>33</v>
       </c>
       <c r="D126" t="n">
-        <v>-8356.52901245757</v>
+        <v>-4066.50686259124</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -2679,15 +2760,15 @@
         <v>33</v>
       </c>
       <c r="D127" t="n">
-        <v>7185.8015976451</v>
+        <v>14480.6881461379</v>
       </c>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -2696,15 +2777,15 @@
         <v>33</v>
       </c>
       <c r="D128" t="n">
-        <v>-31005.4619000092</v>
+        <v>7250.45116487707</v>
       </c>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -2713,10 +2794,10 @@
         <v>33</v>
       </c>
       <c r="D129" t="n">
-        <v>-15802.6685138459</v>
+        <v>-9162.30488862628</v>
       </c>
       <c r="E129" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="130">
@@ -2730,83 +2811,83 @@
         <v>33</v>
       </c>
       <c r="D130" t="n">
-        <v>16224.8055142789</v>
+        <v>42710.9048469006</v>
       </c>
       <c r="E130" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>33</v>
       </c>
       <c r="D131" t="n">
-        <v>-10936.2420910701</v>
+        <v>9414.20300817386</v>
       </c>
       <c r="E131" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C132" t="s">
         <v>33</v>
       </c>
       <c r="D132" t="n">
-        <v>-2549.03436110105</v>
+        <v>20139.1533169574</v>
       </c>
       <c r="E132" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C133" t="s">
         <v>33</v>
       </c>
       <c r="D133" t="n">
-        <v>-9255.96275910873</v>
+        <v>13624.7610663412</v>
       </c>
       <c r="E133" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>33</v>
       </c>
       <c r="D134" t="n">
-        <v>2799.83927924083</v>
+        <v>4907.68841552924</v>
       </c>
       <c r="E134" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -2815,66 +2896,66 @@
         <v>33</v>
       </c>
       <c r="D135" t="n">
-        <v>3457.32479660385</v>
+        <v>15534.2794587026</v>
       </c>
       <c r="E135" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
         <v>33</v>
       </c>
       <c r="D136" t="n">
-        <v>7826.9272011265</v>
+        <v>1661.90511137482</v>
       </c>
       <c r="E136" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
         <v>33</v>
       </c>
       <c r="D137" t="n">
-        <v>-5458.92851469283</v>
+        <v>2926.50843129559</v>
       </c>
       <c r="E137" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>33</v>
       </c>
       <c r="D138" t="n">
-        <v>-33452.9774790088</v>
+        <v>14837.7980265571</v>
       </c>
       <c r="E138" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B139" t="s">
         <v>6</v>
@@ -2883,474 +2964,474 @@
         <v>33</v>
       </c>
       <c r="D139" t="n">
-        <v>21699.6395260683</v>
+        <v>-8618.3106704133</v>
       </c>
       <c r="E139" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
         <v>33</v>
       </c>
       <c r="D140" t="n">
-        <v>4012.97015034275</v>
+        <v>2815.11025320912</v>
       </c>
       <c r="E140" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B141" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
         <v>33</v>
       </c>
       <c r="D141" t="n">
-        <v>3849.84175120369</v>
+        <v>11208.3064457832</v>
       </c>
       <c r="E141" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D142" t="n">
-        <v>1.83124782209345</v>
+        <v>3732.67707586097</v>
       </c>
       <c r="E142" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D143" t="n">
-        <v>1.25979981781288</v>
+        <v>862.809380847146</v>
       </c>
       <c r="E143" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D144" t="n">
-        <v>3.49025473093911</v>
+        <v>2585.56219715875</v>
       </c>
       <c r="E144" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D145" t="n">
-        <v>2.82294391917279</v>
+        <v>-4070.02396317681</v>
       </c>
       <c r="E145" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.135752147911483</v>
+        <v>6290.92875486044</v>
       </c>
       <c r="E146" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.308149018508352</v>
+        <v>-1097.90052645682</v>
       </c>
       <c r="E147" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D148" t="n">
-        <v>2.52052838866719</v>
+        <v>398.581978330505</v>
       </c>
       <c r="E148" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D149" t="n">
-        <v>2.62614548902804</v>
+        <v>4700.28650099614</v>
       </c>
       <c r="E149" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D150" t="n">
-        <v>0.462266551964308</v>
+        <v>1299.28805371584</v>
       </c>
       <c r="E150" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="B151" t="s">
         <v>12</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D151" t="n">
-        <v>1.47182019971022</v>
+        <v>-12047.8589655108</v>
       </c>
       <c r="E151" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D152" t="n">
-        <v>1.60770241767432</v>
+        <v>5305.1999242523</v>
       </c>
       <c r="E152" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C153" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D153" t="n">
-        <v>2.37048940369826</v>
+        <v>-1440.39834981308</v>
       </c>
       <c r="E153" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B154" t="s">
         <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D154" t="n">
-        <v>1.23114086029732</v>
+        <v>197.360181922533</v>
       </c>
       <c r="E154" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
       </c>
       <c r="C155" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D155" t="n">
-        <v>1.43708766669393</v>
+        <v>-1031.75116223536</v>
       </c>
       <c r="E155" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
       </c>
       <c r="C156" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D156" t="n">
-        <v>1.08494730264037</v>
+        <v>830.349281102681</v>
       </c>
       <c r="E156" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C157" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D157" t="n">
-        <v>3.21898637962794</v>
+        <v>-5161.61699153576</v>
       </c>
       <c r="E157" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
       </c>
       <c r="C158" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D158" t="n">
-        <v>2.49267953620642</v>
+        <v>475.780698309525</v>
       </c>
       <c r="E158" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D159" t="n">
-        <v>0.279155561580202</v>
+        <v>2400.39582365439</v>
       </c>
       <c r="E159" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D160" t="n">
-        <v>0.48822362030736</v>
+        <v>5848.88275648398</v>
       </c>
       <c r="E160" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C161" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D161" t="n">
-        <v>1.31909785552449</v>
+        <v>-1157.80175367012</v>
       </c>
       <c r="E161" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B162" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D162" t="n">
-        <v>1.22130198489974</v>
+        <v>2598.58684712636</v>
       </c>
       <c r="E162" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C163" t="s">
         <v>33</v>
       </c>
       <c r="D163" t="n">
-        <v>711722.477175361</v>
+        <v>2241.57194146621</v>
       </c>
       <c r="E163" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>33</v>
       </c>
       <c r="D164" t="n">
-        <v>131400.782317068</v>
+        <v>3064.68744313559</v>
       </c>
       <c r="E164" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C165" t="s">
         <v>33</v>
       </c>
       <c r="D165" t="n">
-        <v>239496.661504391</v>
+        <v>1365.18400987874</v>
       </c>
       <c r="E165" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C166" t="s">
         <v>33</v>
       </c>
       <c r="D166" t="n">
-        <v>118894.120581282</v>
+        <v>-551.513350661882</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -3359,49 +3440,49 @@
         <v>33</v>
       </c>
       <c r="D167" t="n">
-        <v>-4660.66725711362</v>
+        <v>5240.25935185369</v>
       </c>
       <c r="E167" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B168" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C168" t="s">
         <v>33</v>
       </c>
       <c r="D168" t="n">
-        <v>-6302.6165840016</v>
+        <v>550.051017379523</v>
       </c>
       <c r="E168" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
         <v>33</v>
       </c>
       <c r="D169" t="n">
-        <v>45153.2557838856</v>
+        <v>1316.515636555</v>
       </c>
       <c r="E169" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -3410,15 +3491,15 @@
         <v>33</v>
       </c>
       <c r="D170" t="n">
-        <v>41235.0208999402</v>
+        <v>-208.112326372986</v>
       </c>
       <c r="E170" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -3427,66 +3508,66 @@
         <v>33</v>
       </c>
       <c r="D171" t="n">
-        <v>7877.84946139954</v>
+        <v>-1739.41063208537</v>
       </c>
       <c r="E171" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>33</v>
       </c>
       <c r="D172" t="n">
-        <v>23254.5549448551</v>
+        <v>3085.83700640655</v>
       </c>
       <c r="E172" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C173" t="s">
         <v>33</v>
       </c>
       <c r="D173" t="n">
-        <v>22934.0971051244</v>
+        <v>8976.63937022184</v>
       </c>
       <c r="E173" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
         <v>33</v>
       </c>
       <c r="D174" t="n">
-        <v>32140.5945389833</v>
+        <v>2344.72054480673</v>
       </c>
       <c r="E174" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B175" t="s">
         <v>6</v>
@@ -3495,202 +3576,202 @@
         <v>33</v>
       </c>
       <c r="D175" t="n">
-        <v>17003.2787080319</v>
+        <v>13157.8361172742</v>
       </c>
       <c r="E175" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C176" t="s">
         <v>33</v>
       </c>
       <c r="D176" t="n">
-        <v>18594.0173373503</v>
+        <v>33319.7806067692</v>
       </c>
       <c r="E176" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C177" t="s">
         <v>33</v>
       </c>
       <c r="D177" t="n">
-        <v>11426.9128366284</v>
+        <v>15248.3738276206</v>
       </c>
       <c r="E177" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D178" t="n">
-        <v>24102.4286366936</v>
+        <v>2.13051390843702</v>
       </c>
       <c r="E178" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
         <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
-        <v>18050.4387935901</v>
+        <v>-0.686479796530681</v>
       </c>
       <c r="E179" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D180" t="n">
-        <v>27133.8732941553</v>
+        <v>2.26531737433753</v>
       </c>
       <c r="E180" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B181" t="s">
         <v>6</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D181" t="n">
-        <v>26353.624866421</v>
+        <v>1.32656587797906</v>
       </c>
       <c r="E181" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D182" t="n">
-        <v>62445.2774847447</v>
+        <v>-1.44300092831338</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D183" t="n">
-        <v>18273.0625313778</v>
+        <v>1.2167698904487</v>
       </c>
       <c r="E183" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
         <v>7</v>
       </c>
       <c r="D184" t="n">
-        <v>0.799419252336375</v>
+        <v>-0.865043636300855</v>
       </c>
       <c r="E184" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C185" t="s">
         <v>7</v>
       </c>
       <c r="D185" t="n">
-        <v>0.630995782821153</v>
+        <v>1.13642892239947</v>
       </c>
       <c r="E185" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C186" t="s">
         <v>7</v>
       </c>
       <c r="D186" t="n">
-        <v>0.478214478756622</v>
+        <v>-4.26166926336298</v>
       </c>
       <c r="E186" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B187" t="s">
         <v>10</v>
@@ -3699,49 +3780,49 @@
         <v>7</v>
       </c>
       <c r="D187" t="n">
-        <v>0.640726786026669</v>
+        <v>-2.41455739859662</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>7</v>
       </c>
       <c r="D188" t="n">
-        <v>2.67489466466451</v>
+        <v>3.37317623884903</v>
       </c>
       <c r="E188" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C189" t="s">
         <v>7</v>
       </c>
       <c r="D189" t="n">
-        <v>0.599558123117627</v>
+        <v>-1.8601551067406</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B190" t="s">
         <v>10</v>
@@ -3750,15 +3831,15 @@
         <v>7</v>
       </c>
       <c r="D190" t="n">
-        <v>2.86619689110326</v>
+        <v>-0.605399900883874</v>
       </c>
       <c r="E190" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B191" t="s">
         <v>10</v>
@@ -3767,32 +3848,32 @@
         <v>7</v>
       </c>
       <c r="D191" t="n">
-        <v>0.811778301058252</v>
+        <v>-2.1903578009402</v>
       </c>
       <c r="E191" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C192" t="s">
         <v>7</v>
       </c>
       <c r="D192" t="n">
-        <v>1.20237515515211</v>
+        <v>0.901655388055644</v>
       </c>
       <c r="E192" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B193" t="s">
         <v>12</v>
@@ -3801,83 +3882,83 @@
         <v>7</v>
       </c>
       <c r="D193" t="n">
-        <v>0.681856705874662</v>
+        <v>1.29212484530798</v>
       </c>
       <c r="E193" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
         <v>7</v>
       </c>
       <c r="D194" t="n">
-        <v>0.718593890208563</v>
+        <v>3.42957774019357</v>
       </c>
       <c r="E194" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B195" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C195" t="s">
         <v>7</v>
       </c>
       <c r="D195" t="n">
-        <v>2.04344565123797</v>
+        <v>-2.21079743332243</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
         <v>7</v>
       </c>
       <c r="D196" t="n">
-        <v>2.23666771076263</v>
+        <v>-1.66808735514706</v>
       </c>
       <c r="E196" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
       </c>
       <c r="D197" t="n">
-        <v>1.78683208223445</v>
+        <v>1.32311554482296</v>
       </c>
       <c r="E197" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B198" t="s">
         <v>12</v>
@@ -3886,95 +3967,95 @@
         <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>1.33170614955118</v>
+        <v>0.381435349046133</v>
       </c>
       <c r="E198" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C199" t="s">
         <v>7</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.68576672597036</v>
+        <v>0.738259252722129</v>
       </c>
       <c r="E199" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="B200" t="s">
         <v>6</v>
       </c>
       <c r="C200" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D200" t="n">
-        <v>-2.60706427305135</v>
+        <v>98429.2619254624</v>
       </c>
       <c r="E200" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D201" t="n">
-        <v>1.39445078272129</v>
+        <v>-30264.5805811065</v>
       </c>
       <c r="E201" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C202" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D202" t="n">
-        <v>1.68234091346602</v>
+        <v>29720.4022912346</v>
       </c>
       <c r="E202" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D203" t="n">
-        <v>2.20031582654574</v>
+        <v>15635.2739592034</v>
       </c>
       <c r="E203" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="204">
@@ -3985,64 +4066,64 @@
         <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D204" t="n">
-        <v>0.113499096730973</v>
+        <v>-17304.9797174858</v>
       </c>
       <c r="E204" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B205" t="s">
         <v>6</v>
       </c>
       <c r="C205" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D205" t="n">
-        <v>-1.91450543580968</v>
+        <v>12288.5464974043</v>
       </c>
       <c r="E205" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D206" t="n">
-        <v>0.199177251527849</v>
+        <v>-8356.52901245757</v>
       </c>
       <c r="E206" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D207" t="n">
-        <v>2.34795950307642</v>
+        <v>7185.8015976451</v>
       </c>
       <c r="E207" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="208">
@@ -4053,251 +4134,251 @@
         <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D208" t="n">
-        <v>0.388948925702381</v>
+        <v>-31005.4619000092</v>
       </c>
       <c r="E208" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B209" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D209" t="n">
-        <v>-1.79139667096219</v>
+        <v>-15802.6685138459</v>
       </c>
       <c r="E209" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D210" t="n">
-        <v>0.531398096437408</v>
+        <v>16224.8055142789</v>
       </c>
       <c r="E210" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D211" t="n">
-        <v>2.71325449642359</v>
+        <v>-10936.2420910701</v>
       </c>
       <c r="E211" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="B212" t="s">
         <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D212" t="n">
-        <v>1.21401203748639</v>
+        <v>-2549.03436110105</v>
       </c>
       <c r="E212" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.146899228140729</v>
+        <v>-9255.96275910873</v>
       </c>
       <c r="E213" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C214" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.3837892046481</v>
+        <v>2799.83927924083</v>
       </c>
       <c r="E214" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
       </c>
       <c r="C215" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D215" t="n">
-        <v>0.487632967029317</v>
+        <v>3457.32479660385</v>
       </c>
       <c r="E215" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C216" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.0259238688027463</v>
+        <v>7826.9272011265</v>
       </c>
       <c r="E216" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C217" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.19375932885094</v>
+        <v>-5458.92851469283</v>
       </c>
       <c r="E217" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D218" t="n">
-        <v>1.42514192957159</v>
+        <v>-33452.9774790088</v>
       </c>
       <c r="E218" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B219" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D219" t="n">
-        <v>1.00713405539492</v>
+        <v>21699.6395260683</v>
       </c>
       <c r="E219" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C220" t="s">
         <v>33</v>
       </c>
       <c r="D220" t="n">
-        <v>79876.8871951017</v>
+        <v>4012.97015034275</v>
       </c>
       <c r="E220" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C221" t="s">
         <v>33</v>
       </c>
       <c r="D221" t="n">
-        <v>39625.6646277361</v>
+        <v>3849.84175120369</v>
       </c>
       <c r="E221" t="s">
-        <v>50</v>
+        <v>79</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
       <c r="C222" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D222" t="n">
-        <v>21754.5148098028</v>
+        <v>1.83124782209345</v>
       </c>
       <c r="E222" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="223">
@@ -4308,81 +4389,81 @@
         <v>10</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D223" t="n">
-        <v>24666.4538807446</v>
+        <v>1.25979981781288</v>
       </c>
       <c r="E223" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="B224" t="s">
         <v>12</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D224" t="n">
-        <v>38139.6464772244</v>
+        <v>3.49025473093911</v>
       </c>
       <c r="E224" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D225" t="n">
-        <v>9203.23402662392</v>
+        <v>2.82294391917279</v>
       </c>
       <c r="E225" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
       </c>
       <c r="C226" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D226" t="n">
-        <v>33559.8227997296</v>
+        <v>-0.135752147911483</v>
       </c>
       <c r="E226" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D227" t="n">
-        <v>9934.74375806272</v>
+        <v>-0.308149018508352</v>
       </c>
       <c r="E227" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="228">
@@ -4393,273 +4474,273 @@
         <v>6</v>
       </c>
       <c r="C228" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D228" t="n">
-        <v>11005.2511797894</v>
+        <v>2.52052838866719</v>
       </c>
       <c r="E228" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C229" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D229" t="n">
-        <v>6192.91556499856</v>
+        <v>2.62614548902804</v>
       </c>
       <c r="E229" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C230" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D230" t="n">
-        <v>6457.92038444326</v>
+        <v>0.462266551964308</v>
       </c>
       <c r="E230" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B231" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C231" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D231" t="n">
-        <v>15037.147401928</v>
+        <v>1.47182019971022</v>
       </c>
       <c r="E231" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C232" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D232" t="n">
-        <v>16096.6237969385</v>
+        <v>1.60770241767432</v>
       </c>
       <c r="E232" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D233" t="n">
-        <v>13099.0802905842</v>
+        <v>2.37048940369826</v>
       </c>
       <c r="E233" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C234" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D234" t="n">
-        <v>9812.91994058304</v>
+        <v>1.23114086029732</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B235" t="s">
         <v>10</v>
       </c>
       <c r="C235" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D235" t="n">
-        <v>-5160.19111075811</v>
+        <v>1.43708766669393</v>
       </c>
       <c r="E235" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C236" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D236" t="n">
-        <v>-20424.8053461844</v>
+        <v>1.08494730264037</v>
       </c>
       <c r="E236" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C237" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D237" t="n">
-        <v>7922.23272906279</v>
+        <v>3.21898637962794</v>
       </c>
       <c r="E237" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C238" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D238" t="n">
-        <v>9326.4555758495</v>
+        <v>2.49267953620642</v>
       </c>
       <c r="E238" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D239" t="n">
-        <v>11762.8215632751</v>
+        <v>0.279155561580202</v>
       </c>
       <c r="E239" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C240" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D240" t="n">
-        <v>608.878707224532</v>
+        <v>0.48822362030736</v>
       </c>
       <c r="E240" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C241" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D241" t="n">
-        <v>-10114.6537352993</v>
+        <v>1.31909785552449</v>
       </c>
       <c r="E241" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C242" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D242" t="n">
-        <v>830.746537769846</v>
+        <v>1.22130198489974</v>
       </c>
       <c r="E242" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B243" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>33</v>
       </c>
       <c r="D243" t="n">
-        <v>8705.27940668599</v>
+        <v>711722.477175361</v>
       </c>
       <c r="E243" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="B244" t="s">
         <v>10</v>
@@ -4668,83 +4749,83 @@
         <v>33</v>
       </c>
       <c r="D244" t="n">
-        <v>1557.72223906626</v>
+        <v>131400.782317068</v>
       </c>
       <c r="E244" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C245" t="s">
         <v>33</v>
       </c>
       <c r="D245" t="n">
-        <v>-7882.19714140513</v>
+        <v>239496.661504391</v>
       </c>
       <c r="E245" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>33</v>
       </c>
       <c r="D246" t="n">
-        <v>2090.98251357907</v>
+        <v>118894.120581282</v>
       </c>
       <c r="E246" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C247" t="s">
         <v>33</v>
       </c>
       <c r="D247" t="n">
-        <v>9484.99537076799</v>
+        <v>-4660.66725711362</v>
       </c>
       <c r="E247" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>33</v>
       </c>
       <c r="D248" t="n">
-        <v>4394.85537625429</v>
+        <v>-6302.6165840016</v>
       </c>
       <c r="E248" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B249" t="s">
         <v>6</v>
@@ -4753,15 +4834,15 @@
         <v>33</v>
       </c>
       <c r="D249" t="n">
-        <v>-562.094566892425</v>
+        <v>45153.2557838856</v>
       </c>
       <c r="E249" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B250" t="s">
         <v>10</v>
@@ -4770,95 +4851,1455 @@
         <v>33</v>
       </c>
       <c r="D250" t="n">
-        <v>-1427.73995725724</v>
+        <v>41235.0208999402</v>
       </c>
       <c r="E250" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
         <v>33</v>
       </c>
       <c r="D251" t="n">
-        <v>1711.20730171353</v>
+        <v>7877.84946139954</v>
       </c>
       <c r="E251" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C252" t="s">
         <v>33</v>
       </c>
       <c r="D252" t="n">
-        <v>-734.01842580724</v>
+        <v>23254.5549448551</v>
       </c>
       <c r="E252" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B253" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
         <v>33</v>
       </c>
       <c r="D253" t="n">
-        <v>-5460.26027617237</v>
+        <v>22934.0971051244</v>
       </c>
       <c r="E253" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C254" t="s">
         <v>33</v>
       </c>
       <c r="D254" t="n">
-        <v>35427.5908634147</v>
+        <v>32140.5945389833</v>
       </c>
       <c r="E254" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
+        <v>15</v>
+      </c>
+      <c r="B255" t="s">
+        <v>6</v>
+      </c>
+      <c r="C255" t="s">
+        <v>33</v>
+      </c>
+      <c r="D255" t="n">
+        <v>17003.2787080319</v>
+      </c>
+      <c r="E255" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>21</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="s">
+        <v>33</v>
+      </c>
+      <c r="D256" t="n">
+        <v>18594.0173373503</v>
+      </c>
+      <c r="E256" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>36</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+      <c r="C257" t="s">
+        <v>33</v>
+      </c>
+      <c r="D257" t="n">
+        <v>11426.9128366284</v>
+      </c>
+      <c r="E257" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>49</v>
+      </c>
+      <c r="B258" t="s">
+        <v>12</v>
+      </c>
+      <c r="C258" t="s">
+        <v>33</v>
+      </c>
+      <c r="D258" t="n">
+        <v>24102.4286366936</v>
+      </c>
+      <c r="E258" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>50</v>
+      </c>
+      <c r="B259" t="s">
+        <v>10</v>
+      </c>
+      <c r="C259" t="s">
+        <v>33</v>
+      </c>
+      <c r="D259" t="n">
+        <v>18050.4387935901</v>
+      </c>
+      <c r="E259" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>28</v>
+      </c>
+      <c r="B260" t="s">
+        <v>10</v>
+      </c>
+      <c r="C260" t="s">
+        <v>33</v>
+      </c>
+      <c r="D260" t="n">
+        <v>27133.8732941553</v>
+      </c>
+      <c r="E260" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>29</v>
+      </c>
+      <c r="B261" t="s">
+        <v>6</v>
+      </c>
+      <c r="C261" t="s">
+        <v>33</v>
+      </c>
+      <c r="D261" t="n">
+        <v>26353.624866421</v>
+      </c>
+      <c r="E261" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>30</v>
+      </c>
+      <c r="B262" t="s">
+        <v>12</v>
+      </c>
+      <c r="C262" t="s">
+        <v>33</v>
+      </c>
+      <c r="D262" t="n">
+        <v>62445.2774847447</v>
+      </c>
+      <c r="E262" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
         <v>31</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B263" t="s">
         <v>32</v>
       </c>
-      <c r="C255" t="s">
-        <v>33</v>
-      </c>
-      <c r="D255" t="n">
+      <c r="C263" t="s">
+        <v>33</v>
+      </c>
+      <c r="D263" t="n">
+        <v>18273.0625313778</v>
+      </c>
+      <c r="E263" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" t="s">
+        <v>6</v>
+      </c>
+      <c r="C264" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.799419252336375</v>
+      </c>
+      <c r="E264" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>12</v>
+      </c>
+      <c r="C265" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0.630995782821153</v>
+      </c>
+      <c r="E265" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>35</v>
+      </c>
+      <c r="B266" t="s">
+        <v>6</v>
+      </c>
+      <c r="C266" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0.478214478756622</v>
+      </c>
+      <c r="E266" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>9</v>
+      </c>
+      <c r="B267" t="s">
+        <v>10</v>
+      </c>
+      <c r="C267" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0.640726786026669</v>
+      </c>
+      <c r="E267" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>43</v>
+      </c>
+      <c r="B268" t="s">
+        <v>12</v>
+      </c>
+      <c r="C268" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" t="n">
+        <v>2.67489466466451</v>
+      </c>
+      <c r="E268" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>20</v>
+      </c>
+      <c r="B269" t="s">
+        <v>12</v>
+      </c>
+      <c r="C269" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0.599558123117627</v>
+      </c>
+      <c r="E269" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>22</v>
+      </c>
+      <c r="B270" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.86619689110326</v>
+      </c>
+      <c r="E270" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>44</v>
+      </c>
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+      <c r="C271" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" t="n">
+        <v>0.811778301058252</v>
+      </c>
+      <c r="E271" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>23</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.20237515515211</v>
+      </c>
+      <c r="E272" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>83</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" t="n">
+        <v>0.681856705874662</v>
+      </c>
+      <c r="E273" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>13</v>
+      </c>
+      <c r="B274" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" t="n">
+        <v>0.718593890208563</v>
+      </c>
+      <c r="E274" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>84</v>
+      </c>
+      <c r="B275" t="s">
+        <v>32</v>
+      </c>
+      <c r="C275" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" t="n">
+        <v>2.04344565123797</v>
+      </c>
+      <c r="E275" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>85</v>
+      </c>
+      <c r="B276" t="s">
+        <v>12</v>
+      </c>
+      <c r="C276" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.23666771076263</v>
+      </c>
+      <c r="E276" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>78</v>
+      </c>
+      <c r="B277" t="s">
+        <v>12</v>
+      </c>
+      <c r="C277" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.78683208223445</v>
+      </c>
+      <c r="E277" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>49</v>
+      </c>
+      <c r="B278" t="s">
+        <v>12</v>
+      </c>
+      <c r="C278" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.33170614955118</v>
+      </c>
+      <c r="E278" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>36</v>
+      </c>
+      <c r="B279" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" t="n">
+        <v>-0.68576672597036</v>
+      </c>
+      <c r="E279" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>41</v>
+      </c>
+      <c r="B280" t="s">
+        <v>6</v>
+      </c>
+      <c r="C280" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" t="n">
+        <v>-2.60706427305135</v>
+      </c>
+      <c r="E280" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" t="s">
+        <v>10</v>
+      </c>
+      <c r="C281" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" t="n">
+        <v>1.39445078272129</v>
+      </c>
+      <c r="E281" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>40</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.68234091346602</v>
+      </c>
+      <c r="E282" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>53</v>
+      </c>
+      <c r="B283" t="s">
+        <v>12</v>
+      </c>
+      <c r="C283" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" t="n">
+        <v>2.20031582654574</v>
+      </c>
+      <c r="E283" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>17</v>
+      </c>
+      <c r="B284" t="s">
+        <v>10</v>
+      </c>
+      <c r="C284" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" t="n">
+        <v>0.113499096730973</v>
+      </c>
+      <c r="E284" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>52</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-1.91450543580968</v>
+      </c>
+      <c r="E285" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>48</v>
+      </c>
+      <c r="B286" t="s">
+        <v>12</v>
+      </c>
+      <c r="C286" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" t="n">
+        <v>0.199177251527849</v>
+      </c>
+      <c r="E286" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>86</v>
+      </c>
+      <c r="B287" t="s">
+        <v>32</v>
+      </c>
+      <c r="C287" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" t="n">
+        <v>2.34795950307642</v>
+      </c>
+      <c r="E287" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>37</v>
+      </c>
+      <c r="B288" t="s">
+        <v>10</v>
+      </c>
+      <c r="C288" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.388948925702381</v>
+      </c>
+      <c r="E288" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>15</v>
+      </c>
+      <c r="B289" t="s">
+        <v>6</v>
+      </c>
+      <c r="C289" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" t="n">
+        <v>-1.79139667096219</v>
+      </c>
+      <c r="E289" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>39</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.531398096437408</v>
+      </c>
+      <c r="E290" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>87</v>
+      </c>
+      <c r="B291" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2.71325449642359</v>
+      </c>
+      <c r="E291" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>70</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+      <c r="C292" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.21401203748639</v>
+      </c>
+      <c r="E292" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>19</v>
+      </c>
+      <c r="B293" t="s">
+        <v>6</v>
+      </c>
+      <c r="C293" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" t="n">
+        <v>-0.146899228140729</v>
+      </c>
+      <c r="E293" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>26</v>
+      </c>
+      <c r="B294" t="s">
+        <v>10</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" t="n">
+        <v>-0.3837892046481</v>
+      </c>
+      <c r="E294" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>42</v>
+      </c>
+      <c r="B295" t="s">
+        <v>12</v>
+      </c>
+      <c r="C295" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0.487632967029317</v>
+      </c>
+      <c r="E295" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>28</v>
+      </c>
+      <c r="B296" t="s">
+        <v>10</v>
+      </c>
+      <c r="C296" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" t="n">
+        <v>-0.0259238688027463</v>
+      </c>
+      <c r="E296" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>29</v>
+      </c>
+      <c r="B297" t="s">
+        <v>6</v>
+      </c>
+      <c r="C297" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-0.19375932885094</v>
+      </c>
+      <c r="E297" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>30</v>
+      </c>
+      <c r="B298" t="s">
+        <v>12</v>
+      </c>
+      <c r="C298" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.42514192957159</v>
+      </c>
+      <c r="E298" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>31</v>
+      </c>
+      <c r="B299" t="s">
+        <v>32</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.00713405539492</v>
+      </c>
+      <c r="E299" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>6</v>
+      </c>
+      <c r="C300" t="s">
+        <v>33</v>
+      </c>
+      <c r="D300" t="n">
+        <v>79876.8871951017</v>
+      </c>
+      <c r="E300" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>11</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+      <c r="C301" t="s">
+        <v>33</v>
+      </c>
+      <c r="D301" t="n">
+        <v>39625.6646277361</v>
+      </c>
+      <c r="E301" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>35</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>33</v>
+      </c>
+      <c r="D302" t="n">
+        <v>21754.5148098028</v>
+      </c>
+      <c r="E302" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>9</v>
+      </c>
+      <c r="B303" t="s">
+        <v>10</v>
+      </c>
+      <c r="C303" t="s">
+        <v>33</v>
+      </c>
+      <c r="D303" t="n">
+        <v>24666.4538807446</v>
+      </c>
+      <c r="E303" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>43</v>
+      </c>
+      <c r="B304" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" t="s">
+        <v>33</v>
+      </c>
+      <c r="D304" t="n">
+        <v>38139.6464772244</v>
+      </c>
+      <c r="E304" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>20</v>
+      </c>
+      <c r="B305" t="s">
+        <v>12</v>
+      </c>
+      <c r="C305" t="s">
+        <v>33</v>
+      </c>
+      <c r="D305" t="n">
+        <v>9203.23402662392</v>
+      </c>
+      <c r="E305" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>22</v>
+      </c>
+      <c r="B306" t="s">
+        <v>10</v>
+      </c>
+      <c r="C306" t="s">
+        <v>33</v>
+      </c>
+      <c r="D306" t="n">
+        <v>33559.8227997296</v>
+      </c>
+      <c r="E306" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>44</v>
+      </c>
+      <c r="B307" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307" t="s">
+        <v>33</v>
+      </c>
+      <c r="D307" t="n">
+        <v>9934.74375806272</v>
+      </c>
+      <c r="E307" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>23</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" t="s">
+        <v>33</v>
+      </c>
+      <c r="D308" t="n">
+        <v>11005.2511797894</v>
+      </c>
+      <c r="E308" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>83</v>
+      </c>
+      <c r="B309" t="s">
+        <v>12</v>
+      </c>
+      <c r="C309" t="s">
+        <v>33</v>
+      </c>
+      <c r="D309" t="n">
+        <v>6192.91556499856</v>
+      </c>
+      <c r="E309" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>13</v>
+      </c>
+      <c r="B310" t="s">
+        <v>6</v>
+      </c>
+      <c r="C310" t="s">
+        <v>33</v>
+      </c>
+      <c r="D310" t="n">
+        <v>6457.92038444326</v>
+      </c>
+      <c r="E310" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>84</v>
+      </c>
+      <c r="B311" t="s">
+        <v>32</v>
+      </c>
+      <c r="C311" t="s">
+        <v>33</v>
+      </c>
+      <c r="D311" t="n">
+        <v>15037.147401928</v>
+      </c>
+      <c r="E311" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>85</v>
+      </c>
+      <c r="B312" t="s">
+        <v>12</v>
+      </c>
+      <c r="C312" t="s">
+        <v>33</v>
+      </c>
+      <c r="D312" t="n">
+        <v>16096.6237969385</v>
+      </c>
+      <c r="E312" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>78</v>
+      </c>
+      <c r="B313" t="s">
+        <v>12</v>
+      </c>
+      <c r="C313" t="s">
+        <v>33</v>
+      </c>
+      <c r="D313" t="n">
+        <v>13099.0802905842</v>
+      </c>
+      <c r="E313" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>49</v>
+      </c>
+      <c r="B314" t="s">
+        <v>12</v>
+      </c>
+      <c r="C314" t="s">
+        <v>33</v>
+      </c>
+      <c r="D314" t="n">
+        <v>9812.91994058304</v>
+      </c>
+      <c r="E314" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>36</v>
+      </c>
+      <c r="B315" t="s">
+        <v>10</v>
+      </c>
+      <c r="C315" t="s">
+        <v>33</v>
+      </c>
+      <c r="D315" t="n">
+        <v>-5160.19111075811</v>
+      </c>
+      <c r="E315" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>41</v>
+      </c>
+      <c r="B316" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>33</v>
+      </c>
+      <c r="D316" t="n">
+        <v>-20424.8053461844</v>
+      </c>
+      <c r="E316" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>21</v>
+      </c>
+      <c r="B317" t="s">
+        <v>10</v>
+      </c>
+      <c r="C317" t="s">
+        <v>33</v>
+      </c>
+      <c r="D317" t="n">
+        <v>7922.23272906279</v>
+      </c>
+      <c r="E317" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>40</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>33</v>
+      </c>
+      <c r="D318" t="n">
+        <v>9326.4555758495</v>
+      </c>
+      <c r="E318" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>53</v>
+      </c>
+      <c r="B319" t="s">
+        <v>12</v>
+      </c>
+      <c r="C319" t="s">
+        <v>33</v>
+      </c>
+      <c r="D319" t="n">
+        <v>11762.8215632751</v>
+      </c>
+      <c r="E319" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
+      <c r="C320" t="s">
+        <v>33</v>
+      </c>
+      <c r="D320" t="n">
+        <v>608.878707224532</v>
+      </c>
+      <c r="E320" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>52</v>
+      </c>
+      <c r="B321" t="s">
+        <v>6</v>
+      </c>
+      <c r="C321" t="s">
+        <v>33</v>
+      </c>
+      <c r="D321" t="n">
+        <v>-10114.6537352993</v>
+      </c>
+      <c r="E321" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>48</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+      <c r="C322" t="s">
+        <v>33</v>
+      </c>
+      <c r="D322" t="n">
+        <v>830.746537769846</v>
+      </c>
+      <c r="E322" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>86</v>
+      </c>
+      <c r="B323" t="s">
+        <v>32</v>
+      </c>
+      <c r="C323" t="s">
+        <v>33</v>
+      </c>
+      <c r="D323" t="n">
+        <v>8705.27940668599</v>
+      </c>
+      <c r="E323" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>37</v>
+      </c>
+      <c r="B324" t="s">
+        <v>10</v>
+      </c>
+      <c r="C324" t="s">
+        <v>33</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1557.72223906626</v>
+      </c>
+      <c r="E324" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>15</v>
+      </c>
+      <c r="B325" t="s">
+        <v>6</v>
+      </c>
+      <c r="C325" t="s">
+        <v>33</v>
+      </c>
+      <c r="D325" t="n">
+        <v>-7882.19714140513</v>
+      </c>
+      <c r="E325" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>39</v>
+      </c>
+      <c r="B326" t="s">
+        <v>10</v>
+      </c>
+      <c r="C326" t="s">
+        <v>33</v>
+      </c>
+      <c r="D326" t="n">
+        <v>2090.98251357907</v>
+      </c>
+      <c r="E326" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>87</v>
+      </c>
+      <c r="B327" t="s">
+        <v>12</v>
+      </c>
+      <c r="C327" t="s">
+        <v>33</v>
+      </c>
+      <c r="D327" t="n">
+        <v>9484.99537076799</v>
+      </c>
+      <c r="E327" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>70</v>
+      </c>
+      <c r="B328" t="s">
+        <v>10</v>
+      </c>
+      <c r="C328" t="s">
+        <v>33</v>
+      </c>
+      <c r="D328" t="n">
+        <v>4394.85537625429</v>
+      </c>
+      <c r="E328" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>19</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>33</v>
+      </c>
+      <c r="D329" t="n">
+        <v>-562.094566892425</v>
+      </c>
+      <c r="E329" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>26</v>
+      </c>
+      <c r="B330" t="s">
+        <v>10</v>
+      </c>
+      <c r="C330" t="s">
+        <v>33</v>
+      </c>
+      <c r="D330" t="n">
+        <v>-1427.73995725724</v>
+      </c>
+      <c r="E330" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>42</v>
+      </c>
+      <c r="B331" t="s">
+        <v>12</v>
+      </c>
+      <c r="C331" t="s">
+        <v>33</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1711.20730171353</v>
+      </c>
+      <c r="E331" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>28</v>
+      </c>
+      <c r="B332" t="s">
+        <v>10</v>
+      </c>
+      <c r="C332" t="s">
+        <v>33</v>
+      </c>
+      <c r="D332" t="n">
+        <v>-734.01842580724</v>
+      </c>
+      <c r="E332" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>29</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+      <c r="C333" t="s">
+        <v>33</v>
+      </c>
+      <c r="D333" t="n">
+        <v>-5460.26027617237</v>
+      </c>
+      <c r="E333" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>30</v>
+      </c>
+      <c r="B334" t="s">
+        <v>12</v>
+      </c>
+      <c r="C334" t="s">
+        <v>33</v>
+      </c>
+      <c r="D334" t="n">
+        <v>35427.5908634147</v>
+      </c>
+      <c r="E334" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>31</v>
+      </c>
+      <c r="B335" t="s">
+        <v>32</v>
+      </c>
+      <c r="C335" t="s">
+        <v>33</v>
+      </c>
+      <c r="D335" t="n">
         <v>30854.5692520005</v>
       </c>
-      <c r="E255" t="s">
-        <v>50</v>
+      <c r="E335" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
